--- a/SE-CPE4A-19-20-ATTENDANCE.xlsx
+++ b/SE-CPE4A-19-20-ATTENDANCE.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{8DB15F7E-3338-DE43-8499-6A2854CE28E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CPE1A-ATTENDANCE-19-20" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="57">
   <si>
     <t>#</t>
   </si>
@@ -200,7 +201,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -619,35 +620,35 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.03515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.98828125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.66015625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.71875" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="12.23828125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.71875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="12.23828125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="13.71875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>52</v>
       </c>
@@ -667,7 +668,7 @@
       <c r="O1" s="11"/>
       <c r="P1" s="11"/>
     </row>
-    <row r="2" spans="1:16" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>53</v>
       </c>
@@ -687,7 +688,7 @@
       <c r="O2" s="12"/>
       <c r="P2" s="12"/>
     </row>
-    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>54</v>
       </c>
@@ -707,10 +708,10 @@
       <c r="O3" s="13"/>
       <c r="P3" s="13"/>
     </row>
-    <row r="5" spans="1:16" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:16" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
@@ -729,11 +730,11 @@
       <c r="F6" s="4">
         <v>43853</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>3</v>
+      <c r="G6" s="4">
+        <v>43859</v>
+      </c>
+      <c r="H6" s="4">
+        <v>43860</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>3</v>
@@ -760,7 +761,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>1</v>
       </c>
@@ -773,17 +774,17 @@
       <c r="D7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>3</v>
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1</v>
+      </c>
+      <c r="H7" s="5">
+        <v>1</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>3</v>
@@ -810,7 +811,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>2</v>
       </c>
@@ -823,17 +824,17 @@
       <c r="D8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>3</v>
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>3</v>
@@ -860,7 +861,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>3</v>
       </c>
@@ -873,17 +874,17 @@
       <c r="D9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>3</v>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1</v>
+      </c>
+      <c r="H9" s="5">
+        <v>1</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>3</v>
@@ -910,7 +911,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>4</v>
       </c>
@@ -923,17 +924,17 @@
       <c r="D10" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>3</v>
+      <c r="E10" s="5">
+        <v>1</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1</v>
+      </c>
+      <c r="H10" s="5">
+        <v>1</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>3</v>
@@ -960,7 +961,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>5</v>
       </c>
@@ -973,17 +974,17 @@
       <c r="D11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>3</v>
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1</v>
+      </c>
+      <c r="H11" s="5">
+        <v>1</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>3</v>
@@ -1010,7 +1011,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>6</v>
       </c>
@@ -1023,17 +1024,17 @@
       <c r="D12" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>3</v>
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+      <c r="F12" s="5">
+        <v>1</v>
+      </c>
+      <c r="G12" s="5">
+        <v>1</v>
+      </c>
+      <c r="H12" s="5">
+        <v>1</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>3</v>
@@ -1060,7 +1061,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>7</v>
       </c>
@@ -1073,17 +1074,17 @@
       <c r="D13" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>3</v>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5">
+        <v>1</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>3</v>
@@ -1110,7 +1111,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>8</v>
       </c>
@@ -1123,17 +1124,17 @@
       <c r="D14" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>3</v>
+      <c r="E14" s="5">
+        <v>1</v>
+      </c>
+      <c r="F14" s="5">
+        <v>1</v>
+      </c>
+      <c r="G14" s="5">
+        <v>1</v>
+      </c>
+      <c r="H14" s="5">
+        <v>1</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>3</v>
@@ -1160,7 +1161,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>9</v>
       </c>
@@ -1173,17 +1174,17 @@
       <c r="D15" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>3</v>
+      <c r="E15" s="5">
+        <v>0</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5">
+        <v>1</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>3</v>
@@ -1210,7 +1211,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>10</v>
       </c>
@@ -1223,17 +1224,17 @@
       <c r="D16" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>3</v>
+      <c r="E16" s="5">
+        <v>1</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5">
+        <v>1</v>
+      </c>
+      <c r="H16" s="5">
+        <v>1</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>3</v>
@@ -1260,7 +1261,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>11</v>
       </c>
@@ -1273,17 +1274,17 @@
       <c r="D17" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>3</v>
+      <c r="E17" s="5">
+        <v>1</v>
+      </c>
+      <c r="F17" s="5">
+        <v>1</v>
+      </c>
+      <c r="G17" s="5">
+        <v>1</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>3</v>
@@ -1310,7 +1311,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>12</v>
       </c>
@@ -1323,17 +1324,17 @@
       <c r="D18" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>3</v>
+      <c r="E18" s="5">
+        <v>0</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1</v>
+      </c>
+      <c r="G18" s="5">
+        <v>1</v>
+      </c>
+      <c r="H18" s="5">
+        <v>1</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>3</v>
@@ -1360,7 +1361,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>13</v>
       </c>
@@ -1373,17 +1374,17 @@
       <c r="D19" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>3</v>
+      <c r="E19" s="5">
+        <v>1</v>
+      </c>
+      <c r="F19" s="5">
+        <v>1</v>
+      </c>
+      <c r="G19" s="5">
+        <v>1</v>
+      </c>
+      <c r="H19" s="5">
+        <v>1</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>3</v>
@@ -1410,7 +1411,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>14</v>
       </c>
@@ -1423,17 +1424,17 @@
       <c r="D20" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>3</v>
+      <c r="E20" s="5">
+        <v>1</v>
+      </c>
+      <c r="F20" s="5">
+        <v>1</v>
+      </c>
+      <c r="G20" s="5">
+        <v>1</v>
+      </c>
+      <c r="H20" s="5">
+        <v>1</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>3</v>
@@ -1460,7 +1461,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>15</v>
       </c>
@@ -1473,17 +1474,17 @@
       <c r="D21" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>3</v>
+      <c r="E21" s="5">
+        <v>1</v>
+      </c>
+      <c r="F21" s="5">
+        <v>1</v>
+      </c>
+      <c r="G21" s="5">
+        <v>1</v>
+      </c>
+      <c r="H21" s="5">
+        <v>1</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>3</v>
@@ -1510,7 +1511,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>16</v>
       </c>
@@ -1523,17 +1524,17 @@
       <c r="D22" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>3</v>
+      <c r="E22" s="5">
+        <v>1</v>
+      </c>
+      <c r="F22" s="5">
+        <v>1</v>
+      </c>
+      <c r="G22" s="5">
+        <v>1</v>
+      </c>
+      <c r="H22" s="5">
+        <v>1</v>
       </c>
       <c r="I22" s="5" t="s">
         <v>3</v>
@@ -1560,7 +1561,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>17</v>
       </c>
@@ -1573,17 +1574,17 @@
       <c r="D23" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>3</v>
+      <c r="E23" s="5">
+        <v>1</v>
+      </c>
+      <c r="F23" s="5">
+        <v>1</v>
+      </c>
+      <c r="G23" s="5">
+        <v>1</v>
+      </c>
+      <c r="H23" s="5">
+        <v>1</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>3</v>
@@ -1610,7 +1611,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>18</v>
       </c>
@@ -1623,17 +1624,17 @@
       <c r="D24" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>3</v>
+      <c r="E24" s="5">
+        <v>1</v>
+      </c>
+      <c r="F24" s="5">
+        <v>1</v>
+      </c>
+      <c r="G24" s="5">
+        <v>1</v>
+      </c>
+      <c r="H24" s="5">
+        <v>1</v>
       </c>
       <c r="I24" s="5" t="s">
         <v>3</v>
@@ -1660,7 +1661,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>19</v>
       </c>
@@ -1673,17 +1674,17 @@
       <c r="D25" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>3</v>
+      <c r="E25" s="5">
+        <v>1</v>
+      </c>
+      <c r="F25" s="5">
+        <v>1</v>
+      </c>
+      <c r="G25" s="5">
+        <v>1</v>
+      </c>
+      <c r="H25" s="5">
+        <v>1</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>3</v>
@@ -1710,7 +1711,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>20</v>
       </c>
@@ -1723,17 +1724,17 @@
       <c r="D26" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>3</v>
+      <c r="E26" s="5">
+        <v>1</v>
+      </c>
+      <c r="F26" s="5">
+        <v>1</v>
+      </c>
+      <c r="G26" s="5">
+        <v>0</v>
+      </c>
+      <c r="H26" s="5">
+        <v>1</v>
       </c>
       <c r="I26" s="5" t="s">
         <v>3</v>
@@ -1760,7 +1761,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>21</v>
       </c>
@@ -1773,17 +1774,17 @@
       <c r="D27" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>3</v>
+      <c r="E27" s="5">
+        <v>0</v>
+      </c>
+      <c r="F27" s="5">
+        <v>1</v>
+      </c>
+      <c r="G27" s="5">
+        <v>1</v>
+      </c>
+      <c r="H27" s="5">
+        <v>0</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>3</v>
@@ -1810,7 +1811,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>22</v>
       </c>
@@ -1823,17 +1824,17 @@
       <c r="D28" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E28" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>3</v>
+      <c r="E28" s="5">
+        <v>1</v>
+      </c>
+      <c r="F28" s="5">
+        <v>1</v>
+      </c>
+      <c r="G28" s="5">
+        <v>1</v>
+      </c>
+      <c r="H28" s="5">
+        <v>1</v>
       </c>
       <c r="I28" s="5" t="s">
         <v>3</v>
@@ -1860,7 +1861,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>23</v>
       </c>
@@ -1873,17 +1874,17 @@
       <c r="D29" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>3</v>
+      <c r="E29" s="5">
+        <v>1</v>
+      </c>
+      <c r="F29" s="5">
+        <v>1</v>
+      </c>
+      <c r="G29" s="5">
+        <v>1</v>
+      </c>
+      <c r="H29" s="5">
+        <v>1</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>3</v>
@@ -1910,7 +1911,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>24</v>
       </c>
@@ -1923,17 +1924,17 @@
       <c r="D30" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E30" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>3</v>
+      <c r="E30" s="5">
+        <v>0</v>
+      </c>
+      <c r="F30" s="5">
+        <v>1</v>
+      </c>
+      <c r="G30" s="5">
+        <v>1</v>
+      </c>
+      <c r="H30" s="5">
+        <v>1</v>
       </c>
       <c r="I30" s="5" t="s">
         <v>3</v>
@@ -1960,7 +1961,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>25</v>
       </c>
@@ -1973,17 +1974,17 @@
       <c r="D31" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>3</v>
+      <c r="E31" s="5">
+        <v>1</v>
+      </c>
+      <c r="F31" s="5">
+        <v>0</v>
+      </c>
+      <c r="G31" s="5">
+        <v>1</v>
+      </c>
+      <c r="H31" s="5">
+        <v>1</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>3</v>
@@ -2010,7 +2011,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>26</v>
       </c>
@@ -2023,17 +2024,17 @@
       <c r="D32" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>3</v>
+      <c r="E32" s="5">
+        <v>1</v>
+      </c>
+      <c r="F32" s="5">
+        <v>1</v>
+      </c>
+      <c r="G32" s="5">
+        <v>1</v>
+      </c>
+      <c r="H32" s="5">
+        <v>1</v>
       </c>
       <c r="I32" s="5" t="s">
         <v>3</v>
@@ -2060,7 +2061,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>27</v>
       </c>
@@ -2073,17 +2074,17 @@
       <c r="D33" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>3</v>
+      <c r="E33" s="5">
+        <v>1</v>
+      </c>
+      <c r="F33" s="5">
+        <v>1</v>
+      </c>
+      <c r="G33" s="5">
+        <v>1</v>
+      </c>
+      <c r="H33" s="5">
+        <v>1</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>3</v>
@@ -2110,7 +2111,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>28</v>
       </c>
@@ -2123,17 +2124,17 @@
       <c r="D34" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E34" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>3</v>
+      <c r="E34" s="5">
+        <v>0</v>
+      </c>
+      <c r="F34" s="5">
+        <v>1</v>
+      </c>
+      <c r="G34" s="5">
+        <v>0</v>
+      </c>
+      <c r="H34" s="5">
+        <v>1</v>
       </c>
       <c r="I34" s="5" t="s">
         <v>3</v>
@@ -2160,7 +2161,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>29</v>
       </c>
@@ -2173,17 +2174,17 @@
       <c r="D35" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E35" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>3</v>
+      <c r="E35" s="5">
+        <v>1</v>
+      </c>
+      <c r="F35" s="5">
+        <v>0</v>
+      </c>
+      <c r="G35" s="5">
+        <v>1</v>
+      </c>
+      <c r="H35" s="5">
+        <v>1</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>3</v>
@@ -2210,7 +2211,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>30</v>
       </c>
@@ -2223,17 +2224,17 @@
       <c r="D36" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E36" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>3</v>
+      <c r="E36" s="5">
+        <v>1</v>
+      </c>
+      <c r="F36" s="5">
+        <v>0</v>
+      </c>
+      <c r="G36" s="5">
+        <v>1</v>
+      </c>
+      <c r="H36" s="5">
+        <v>1</v>
       </c>
       <c r="I36" s="5" t="s">
         <v>3</v>
@@ -2260,7 +2261,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>31</v>
       </c>
@@ -2273,17 +2274,17 @@
       <c r="D37" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E37" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>3</v>
+      <c r="E37" s="5">
+        <v>1</v>
+      </c>
+      <c r="F37" s="5">
+        <v>1</v>
+      </c>
+      <c r="G37" s="5">
+        <v>1</v>
+      </c>
+      <c r="H37" s="5">
+        <v>1</v>
       </c>
       <c r="I37" s="5" t="s">
         <v>3</v>
@@ -2310,7 +2311,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>32</v>
       </c>
@@ -2323,17 +2324,17 @@
       <c r="D38" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E38" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>3</v>
+      <c r="E38" s="5">
+        <v>1</v>
+      </c>
+      <c r="F38" s="5">
+        <v>1</v>
+      </c>
+      <c r="G38" s="5">
+        <v>1</v>
+      </c>
+      <c r="H38" s="5">
+        <v>1</v>
       </c>
       <c r="I38" s="5" t="s">
         <v>3</v>
@@ -2360,7 +2361,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>33</v>
       </c>
@@ -2373,17 +2374,17 @@
       <c r="D39" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E39" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>3</v>
+      <c r="E39" s="5">
+        <v>0</v>
+      </c>
+      <c r="F39" s="5">
+        <v>1</v>
+      </c>
+      <c r="G39" s="5">
+        <v>1</v>
+      </c>
+      <c r="H39" s="5">
+        <v>0</v>
       </c>
       <c r="I39" s="5" t="s">
         <v>3</v>
@@ -2410,7 +2411,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>34</v>
       </c>
@@ -2423,17 +2424,17 @@
       <c r="D40" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E40" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>3</v>
+      <c r="E40" s="5">
+        <v>1</v>
+      </c>
+      <c r="F40" s="5">
+        <v>0</v>
+      </c>
+      <c r="G40" s="5">
+        <v>1</v>
+      </c>
+      <c r="H40" s="5">
+        <v>0</v>
       </c>
       <c r="I40" s="5" t="s">
         <v>3</v>
@@ -2460,7 +2461,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>35</v>
       </c>
@@ -2473,17 +2474,17 @@
       <c r="D41" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E41" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>3</v>
+      <c r="E41" s="5">
+        <v>1</v>
+      </c>
+      <c r="F41" s="5">
+        <v>1</v>
+      </c>
+      <c r="G41" s="5">
+        <v>1</v>
+      </c>
+      <c r="H41" s="5">
+        <v>1</v>
       </c>
       <c r="I41" s="5" t="s">
         <v>3</v>
@@ -2510,7 +2511,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>36</v>
       </c>
@@ -2523,17 +2524,17 @@
       <c r="D42" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E42" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>3</v>
+      <c r="E42" s="5">
+        <v>1</v>
+      </c>
+      <c r="F42" s="5">
+        <v>1</v>
+      </c>
+      <c r="G42" s="5">
+        <v>1</v>
+      </c>
+      <c r="H42" s="5">
+        <v>1</v>
       </c>
       <c r="I42" s="5" t="s">
         <v>3</v>
@@ -2560,7 +2561,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>37</v>
       </c>
@@ -2573,17 +2574,17 @@
       <c r="D43" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E43" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>3</v>
+      <c r="E43" s="5">
+        <v>1</v>
+      </c>
+      <c r="F43" s="5">
+        <v>1</v>
+      </c>
+      <c r="G43" s="5">
+        <v>1</v>
+      </c>
+      <c r="H43" s="5">
+        <v>1</v>
       </c>
       <c r="I43" s="5" t="s">
         <v>3</v>
@@ -2610,7 +2611,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>38</v>
       </c>
@@ -2623,17 +2624,17 @@
       <c r="D44" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E44" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>3</v>
+      <c r="E44" s="5">
+        <v>0</v>
+      </c>
+      <c r="F44" s="5">
+        <v>1</v>
+      </c>
+      <c r="G44" s="5">
+        <v>1</v>
+      </c>
+      <c r="H44" s="5">
+        <v>0</v>
       </c>
       <c r="I44" s="5" t="s">
         <v>3</v>
@@ -2660,7 +2661,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>39</v>
       </c>
@@ -2673,17 +2674,17 @@
       <c r="D45" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E45" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>3</v>
+      <c r="E45" s="5">
+        <v>1</v>
+      </c>
+      <c r="F45" s="5">
+        <v>1</v>
+      </c>
+      <c r="G45" s="5">
+        <v>1</v>
+      </c>
+      <c r="H45" s="5">
+        <v>1</v>
       </c>
       <c r="I45" s="5" t="s">
         <v>3</v>
@@ -2710,7 +2711,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>40</v>
       </c>
@@ -2723,17 +2724,17 @@
       <c r="D46" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E46" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H46" s="5" t="s">
-        <v>3</v>
+      <c r="E46" s="5">
+        <v>1</v>
+      </c>
+      <c r="F46" s="5">
+        <v>1</v>
+      </c>
+      <c r="G46" s="5">
+        <v>1</v>
+      </c>
+      <c r="H46" s="5">
+        <v>1</v>
       </c>
       <c r="I46" s="5" t="s">
         <v>3</v>
@@ -2760,7 +2761,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>41</v>
       </c>
@@ -2773,17 +2774,17 @@
       <c r="D47" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E47" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H47" s="5" t="s">
-        <v>3</v>
+      <c r="E47" s="5">
+        <v>1</v>
+      </c>
+      <c r="F47" s="5">
+        <v>1</v>
+      </c>
+      <c r="G47" s="5">
+        <v>1</v>
+      </c>
+      <c r="H47" s="5">
+        <v>1</v>
       </c>
       <c r="I47" s="5" t="s">
         <v>3</v>
@@ -2810,7 +2811,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>42</v>
       </c>
@@ -2823,17 +2824,17 @@
       <c r="D48" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E48" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H48" s="5" t="s">
-        <v>3</v>
+      <c r="E48" s="5">
+        <v>1</v>
+      </c>
+      <c r="F48" s="5">
+        <v>1</v>
+      </c>
+      <c r="G48" s="5">
+        <v>1</v>
+      </c>
+      <c r="H48" s="5">
+        <v>1</v>
       </c>
       <c r="I48" s="5" t="s">
         <v>3</v>
@@ -2860,7 +2861,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>43</v>
       </c>
@@ -2873,17 +2874,17 @@
       <c r="D49" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E49" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G49" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H49" s="5" t="s">
-        <v>3</v>
+      <c r="E49" s="5">
+        <v>1</v>
+      </c>
+      <c r="F49" s="5">
+        <v>1</v>
+      </c>
+      <c r="G49" s="5">
+        <v>1</v>
+      </c>
+      <c r="H49" s="5">
+        <v>1</v>
       </c>
       <c r="I49" s="5" t="s">
         <v>3</v>
@@ -2910,7 +2911,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>44</v>
       </c>
@@ -2923,17 +2924,17 @@
       <c r="D50" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E50" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H50" s="5" t="s">
-        <v>3</v>
+      <c r="E50" s="5">
+        <v>1</v>
+      </c>
+      <c r="F50" s="5">
+        <v>0</v>
+      </c>
+      <c r="G50" s="5">
+        <v>1</v>
+      </c>
+      <c r="H50" s="5">
+        <v>1</v>
       </c>
       <c r="I50" s="5" t="s">
         <v>3</v>
@@ -2960,7 +2961,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>45</v>
       </c>
@@ -2973,17 +2974,17 @@
       <c r="D51" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E51" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G51" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H51" s="5" t="s">
-        <v>3</v>
+      <c r="E51" s="5">
+        <v>1</v>
+      </c>
+      <c r="F51" s="5">
+        <v>1</v>
+      </c>
+      <c r="G51" s="5">
+        <v>1</v>
+      </c>
+      <c r="H51" s="5">
+        <v>1</v>
       </c>
       <c r="I51" s="5" t="s">
         <v>3</v>
@@ -3010,7 +3011,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>46</v>
       </c>
@@ -3023,17 +3024,17 @@
       <c r="D52" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E52" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="5" t="s">
-        <v>3</v>
+      <c r="E52" s="5">
+        <v>1</v>
+      </c>
+      <c r="F52" s="5">
+        <v>1</v>
+      </c>
+      <c r="G52" s="5">
+        <v>1</v>
+      </c>
+      <c r="H52" s="5">
+        <v>1</v>
       </c>
       <c r="I52" s="5" t="s">
         <v>3</v>
@@ -3060,7 +3061,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>47</v>
       </c>
@@ -3073,17 +3074,17 @@
       <c r="D53" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E53" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H53" s="5" t="s">
-        <v>3</v>
+      <c r="E53" s="5">
+        <v>1</v>
+      </c>
+      <c r="F53" s="5">
+        <v>1</v>
+      </c>
+      <c r="G53" s="5">
+        <v>1</v>
+      </c>
+      <c r="H53" s="5">
+        <v>1</v>
       </c>
       <c r="I53" s="5" t="s">
         <v>3</v>
@@ -3110,7 +3111,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>48</v>
       </c>
@@ -3123,17 +3124,17 @@
       <c r="D54" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E54" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G54" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H54" s="5" t="s">
-        <v>3</v>
+      <c r="E54" s="5">
+        <v>1</v>
+      </c>
+      <c r="F54" s="5">
+        <v>1</v>
+      </c>
+      <c r="G54" s="5">
+        <v>1</v>
+      </c>
+      <c r="H54" s="5">
+        <v>1</v>
       </c>
       <c r="I54" s="5" t="s">
         <v>3</v>

--- a/SE-CPE4A-19-20-ATTENDANCE.xlsx
+++ b/SE-CPE4A-19-20-ATTENDANCE.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{8DB15F7E-3338-DE43-8499-6A2854CE28E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{5A1E94F9-2A19-AA42-8AEE-C3A0C0C6FC1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="56">
   <si>
     <t>#</t>
   </si>
@@ -631,8 +631,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2228,7 +2228,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36" s="5">
         <v>1</v>

--- a/SE-CPE4A-19-20-ATTENDANCE.xlsx
+++ b/SE-CPE4A-19-20-ATTENDANCE.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{5A1E94F9-2A19-AA42-8AEE-C3A0C0C6FC1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\D\Documents\GitHub\MONITORING-CPE4-19-20\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310"/>
   </bookViews>
   <sheets>
     <sheet name="CPE1A-ATTENDANCE-19-20" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="56">
   <si>
     <t>#</t>
   </si>
@@ -201,8 +205,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -627,28 +631,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.03515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.98828125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.66015625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.71875" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="12.23828125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.71875" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="12.23828125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="13.71875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="60" customHeight="1">
       <c r="A1" s="11" t="s">
         <v>52</v>
       </c>
@@ -668,7 +672,7 @@
       <c r="O1" s="11"/>
       <c r="P1" s="11"/>
     </row>
-    <row r="2" spans="1:16" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="58.5" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>53</v>
       </c>
@@ -688,7 +692,7 @@
       <c r="O2" s="12"/>
       <c r="P2" s="12"/>
     </row>
-    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="15" customHeight="1">
       <c r="A3" s="13" t="s">
         <v>54</v>
       </c>
@@ -708,10 +712,10 @@
       <c r="O3" s="13"/>
       <c r="P3" s="13"/>
     </row>
-    <row r="5" spans="1:16" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="23.25" customHeight="1" thickBot="1">
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:16" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="23.25" customHeight="1" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
@@ -736,14 +740,14 @@
       <c r="H6" s="4">
         <v>43860</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>3</v>
+      <c r="I6" s="4">
+        <v>43866</v>
+      </c>
+      <c r="J6" s="4">
+        <v>43867</v>
+      </c>
+      <c r="K6" s="4">
+        <v>43873</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>3</v>
@@ -761,7 +765,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A7" s="6">
         <v>1</v>
       </c>
@@ -786,14 +790,14 @@
       <c r="H7" s="5">
         <v>1</v>
       </c>
-      <c r="I7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>3</v>
+      <c r="I7" s="5">
+        <v>1</v>
+      </c>
+      <c r="J7" s="5">
+        <v>1</v>
+      </c>
+      <c r="K7" s="5">
+        <v>1</v>
       </c>
       <c r="L7" s="5" t="s">
         <v>3</v>
@@ -811,7 +815,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A8" s="6">
         <v>2</v>
       </c>
@@ -836,14 +840,14 @@
       <c r="H8" s="5">
         <v>1</v>
       </c>
-      <c r="I8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>3</v>
+      <c r="I8" s="5">
+        <v>1</v>
+      </c>
+      <c r="J8" s="5">
+        <v>1</v>
+      </c>
+      <c r="K8" s="5">
+        <v>1</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>3</v>
@@ -861,7 +865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A9" s="6">
         <v>3</v>
       </c>
@@ -886,14 +890,14 @@
       <c r="H9" s="5">
         <v>1</v>
       </c>
-      <c r="I9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>3</v>
+      <c r="I9" s="5">
+        <v>1</v>
+      </c>
+      <c r="J9" s="5">
+        <v>1</v>
+      </c>
+      <c r="K9" s="5">
+        <v>1</v>
       </c>
       <c r="L9" s="5" t="s">
         <v>3</v>
@@ -911,7 +915,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A10" s="6">
         <v>4</v>
       </c>
@@ -936,14 +940,14 @@
       <c r="H10" s="5">
         <v>1</v>
       </c>
-      <c r="I10" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>3</v>
+      <c r="I10" s="5">
+        <v>1</v>
+      </c>
+      <c r="J10" s="5">
+        <v>1</v>
+      </c>
+      <c r="K10" s="5">
+        <v>1</v>
       </c>
       <c r="L10" s="5" t="s">
         <v>3</v>
@@ -961,7 +965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A11" s="6">
         <v>5</v>
       </c>
@@ -986,14 +990,14 @@
       <c r="H11" s="5">
         <v>1</v>
       </c>
-      <c r="I11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>3</v>
+      <c r="I11" s="5">
+        <v>1</v>
+      </c>
+      <c r="J11" s="5">
+        <v>1</v>
+      </c>
+      <c r="K11" s="5">
+        <v>1</v>
       </c>
       <c r="L11" s="5" t="s">
         <v>3</v>
@@ -1011,7 +1015,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A12" s="6">
         <v>6</v>
       </c>
@@ -1036,14 +1040,14 @@
       <c r="H12" s="5">
         <v>1</v>
       </c>
-      <c r="I12" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>3</v>
+      <c r="I12" s="5">
+        <v>1</v>
+      </c>
+      <c r="J12" s="5">
+        <v>1</v>
+      </c>
+      <c r="K12" s="5">
+        <v>1</v>
       </c>
       <c r="L12" s="5" t="s">
         <v>3</v>
@@ -1061,7 +1065,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="17.25" customHeight="1" thickBot="1">
       <c r="A13" s="6">
         <v>7</v>
       </c>
@@ -1086,14 +1090,14 @@
       <c r="H13" s="5">
         <v>1</v>
       </c>
-      <c r="I13" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>3</v>
+      <c r="I13" s="5">
+        <v>1</v>
+      </c>
+      <c r="J13" s="5">
+        <v>0</v>
+      </c>
+      <c r="K13" s="5">
+        <v>0</v>
       </c>
       <c r="L13" s="5" t="s">
         <v>3</v>
@@ -1111,7 +1115,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A14" s="6">
         <v>8</v>
       </c>
@@ -1136,14 +1140,14 @@
       <c r="H14" s="5">
         <v>1</v>
       </c>
-      <c r="I14" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>3</v>
+      <c r="I14" s="5">
+        <v>1</v>
+      </c>
+      <c r="J14" s="5">
+        <v>1</v>
+      </c>
+      <c r="K14" s="5">
+        <v>1</v>
       </c>
       <c r="L14" s="5" t="s">
         <v>3</v>
@@ -1161,7 +1165,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A15" s="6">
         <v>9</v>
       </c>
@@ -1186,14 +1190,14 @@
       <c r="H15" s="5">
         <v>1</v>
       </c>
-      <c r="I15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>3</v>
+      <c r="I15" s="5">
+        <v>1</v>
+      </c>
+      <c r="J15" s="5">
+        <v>1</v>
+      </c>
+      <c r="K15" s="5">
+        <v>1</v>
       </c>
       <c r="L15" s="5" t="s">
         <v>3</v>
@@ -1211,7 +1215,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A16" s="6">
         <v>10</v>
       </c>
@@ -1236,14 +1240,14 @@
       <c r="H16" s="5">
         <v>1</v>
       </c>
-      <c r="I16" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>3</v>
+      <c r="I16" s="5">
+        <v>1</v>
+      </c>
+      <c r="J16" s="5">
+        <v>0</v>
+      </c>
+      <c r="K16" s="5">
+        <v>0</v>
       </c>
       <c r="L16" s="5" t="s">
         <v>3</v>
@@ -1261,7 +1265,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A17" s="6">
         <v>11</v>
       </c>
@@ -1286,14 +1290,14 @@
       <c r="H17" s="5">
         <v>0</v>
       </c>
-      <c r="I17" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>3</v>
+      <c r="I17" s="5">
+        <v>1</v>
+      </c>
+      <c r="J17" s="5">
+        <v>1</v>
+      </c>
+      <c r="K17" s="5">
+        <v>1</v>
       </c>
       <c r="L17" s="5" t="s">
         <v>3</v>
@@ -1311,7 +1315,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A18" s="6">
         <v>12</v>
       </c>
@@ -1336,14 +1340,14 @@
       <c r="H18" s="5">
         <v>1</v>
       </c>
-      <c r="I18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>3</v>
+      <c r="I18" s="5">
+        <v>1</v>
+      </c>
+      <c r="J18" s="5">
+        <v>1</v>
+      </c>
+      <c r="K18" s="5">
+        <v>1</v>
       </c>
       <c r="L18" s="5" t="s">
         <v>3</v>
@@ -1361,7 +1365,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="17.25" thickBot="1">
       <c r="A19" s="6">
         <v>13</v>
       </c>
@@ -1386,14 +1390,14 @@
       <c r="H19" s="5">
         <v>1</v>
       </c>
-      <c r="I19" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>3</v>
+      <c r="I19" s="5">
+        <v>1</v>
+      </c>
+      <c r="J19" s="5">
+        <v>1</v>
+      </c>
+      <c r="K19" s="5">
+        <v>1</v>
       </c>
       <c r="L19" s="5" t="s">
         <v>3</v>
@@ -1411,7 +1415,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A20" s="6">
         <v>14</v>
       </c>
@@ -1436,14 +1440,14 @@
       <c r="H20" s="5">
         <v>1</v>
       </c>
-      <c r="I20" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>3</v>
+      <c r="I20" s="5">
+        <v>1</v>
+      </c>
+      <c r="J20" s="5">
+        <v>1</v>
+      </c>
+      <c r="K20" s="5">
+        <v>1</v>
       </c>
       <c r="L20" s="5" t="s">
         <v>3</v>
@@ -1461,7 +1465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A21" s="6">
         <v>15</v>
       </c>
@@ -1486,14 +1490,14 @@
       <c r="H21" s="5">
         <v>1</v>
       </c>
-      <c r="I21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>3</v>
+      <c r="I21" s="5">
+        <v>1</v>
+      </c>
+      <c r="J21" s="5">
+        <v>1</v>
+      </c>
+      <c r="K21" s="5">
+        <v>1</v>
       </c>
       <c r="L21" s="5" t="s">
         <v>3</v>
@@ -1511,7 +1515,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A22" s="6">
         <v>16</v>
       </c>
@@ -1536,14 +1540,14 @@
       <c r="H22" s="5">
         <v>1</v>
       </c>
-      <c r="I22" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>3</v>
+      <c r="I22" s="5">
+        <v>1</v>
+      </c>
+      <c r="J22" s="5">
+        <v>1</v>
+      </c>
+      <c r="K22" s="5">
+        <v>1</v>
       </c>
       <c r="L22" s="5" t="s">
         <v>3</v>
@@ -1561,7 +1565,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A23" s="6">
         <v>17</v>
       </c>
@@ -1586,14 +1590,14 @@
       <c r="H23" s="5">
         <v>1</v>
       </c>
-      <c r="I23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>3</v>
+      <c r="I23" s="5">
+        <v>1</v>
+      </c>
+      <c r="J23" s="5">
+        <v>1</v>
+      </c>
+      <c r="K23" s="5">
+        <v>1</v>
       </c>
       <c r="L23" s="5" t="s">
         <v>3</v>
@@ -1611,7 +1615,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A24" s="6">
         <v>18</v>
       </c>
@@ -1636,14 +1640,14 @@
       <c r="H24" s="5">
         <v>1</v>
       </c>
-      <c r="I24" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>3</v>
+      <c r="I24" s="5">
+        <v>1</v>
+      </c>
+      <c r="J24" s="5">
+        <v>1</v>
+      </c>
+      <c r="K24" s="5">
+        <v>1</v>
       </c>
       <c r="L24" s="5" t="s">
         <v>3</v>
@@ -1661,7 +1665,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A25" s="6">
         <v>19</v>
       </c>
@@ -1686,14 +1690,14 @@
       <c r="H25" s="5">
         <v>1</v>
       </c>
-      <c r="I25" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K25" s="5" t="s">
-        <v>3</v>
+      <c r="I25" s="5">
+        <v>1</v>
+      </c>
+      <c r="J25" s="5">
+        <v>1</v>
+      </c>
+      <c r="K25" s="5">
+        <v>1</v>
       </c>
       <c r="L25" s="5" t="s">
         <v>3</v>
@@ -1711,7 +1715,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A26" s="6">
         <v>20</v>
       </c>
@@ -1736,14 +1740,14 @@
       <c r="H26" s="5">
         <v>1</v>
       </c>
-      <c r="I26" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>3</v>
+      <c r="I26" s="5">
+        <v>1</v>
+      </c>
+      <c r="J26" s="5">
+        <v>1</v>
+      </c>
+      <c r="K26" s="5">
+        <v>1</v>
       </c>
       <c r="L26" s="5" t="s">
         <v>3</v>
@@ -1761,7 +1765,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A27" s="6">
         <v>21</v>
       </c>
@@ -1786,14 +1790,14 @@
       <c r="H27" s="5">
         <v>0</v>
       </c>
-      <c r="I27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K27" s="5" t="s">
-        <v>3</v>
+      <c r="I27" s="5">
+        <v>1</v>
+      </c>
+      <c r="J27" s="5">
+        <v>1</v>
+      </c>
+      <c r="K27" s="5">
+        <v>1</v>
       </c>
       <c r="L27" s="5" t="s">
         <v>3</v>
@@ -1811,7 +1815,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A28" s="6">
         <v>22</v>
       </c>
@@ -1836,14 +1840,14 @@
       <c r="H28" s="5">
         <v>1</v>
       </c>
-      <c r="I28" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K28" s="5" t="s">
-        <v>3</v>
+      <c r="I28" s="5">
+        <v>1</v>
+      </c>
+      <c r="J28" s="5">
+        <v>1</v>
+      </c>
+      <c r="K28" s="5">
+        <v>1</v>
       </c>
       <c r="L28" s="5" t="s">
         <v>3</v>
@@ -1861,7 +1865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A29" s="6">
         <v>23</v>
       </c>
@@ -1886,14 +1890,14 @@
       <c r="H29" s="5">
         <v>1</v>
       </c>
-      <c r="I29" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J29" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K29" s="5" t="s">
-        <v>3</v>
+      <c r="I29" s="5">
+        <v>1</v>
+      </c>
+      <c r="J29" s="5">
+        <v>1</v>
+      </c>
+      <c r="K29" s="5">
+        <v>1</v>
       </c>
       <c r="L29" s="5" t="s">
         <v>3</v>
@@ -1911,7 +1915,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A30" s="6">
         <v>24</v>
       </c>
@@ -1936,14 +1940,14 @@
       <c r="H30" s="5">
         <v>1</v>
       </c>
-      <c r="I30" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J30" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K30" s="5" t="s">
-        <v>3</v>
+      <c r="I30" s="5">
+        <v>1</v>
+      </c>
+      <c r="J30" s="5">
+        <v>1</v>
+      </c>
+      <c r="K30" s="5">
+        <v>1</v>
       </c>
       <c r="L30" s="5" t="s">
         <v>3</v>
@@ -1961,7 +1965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A31" s="6">
         <v>25</v>
       </c>
@@ -1986,14 +1990,14 @@
       <c r="H31" s="5">
         <v>1</v>
       </c>
-      <c r="I31" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K31" s="5" t="s">
-        <v>3</v>
+      <c r="I31" s="5">
+        <v>1</v>
+      </c>
+      <c r="J31" s="5">
+        <v>1</v>
+      </c>
+      <c r="K31" s="5">
+        <v>1</v>
       </c>
       <c r="L31" s="5" t="s">
         <v>3</v>
@@ -2011,7 +2015,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A32" s="6">
         <v>26</v>
       </c>
@@ -2036,14 +2040,14 @@
       <c r="H32" s="5">
         <v>1</v>
       </c>
-      <c r="I32" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J32" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K32" s="5" t="s">
-        <v>3</v>
+      <c r="I32" s="5">
+        <v>1</v>
+      </c>
+      <c r="J32" s="5">
+        <v>1</v>
+      </c>
+      <c r="K32" s="5">
+        <v>1</v>
       </c>
       <c r="L32" s="5" t="s">
         <v>3</v>
@@ -2061,7 +2065,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A33" s="6">
         <v>27</v>
       </c>
@@ -2086,14 +2090,14 @@
       <c r="H33" s="5">
         <v>1</v>
       </c>
-      <c r="I33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K33" s="5" t="s">
-        <v>3</v>
+      <c r="I33" s="5">
+        <v>1</v>
+      </c>
+      <c r="J33" s="5">
+        <v>1</v>
+      </c>
+      <c r="K33" s="5">
+        <v>1</v>
       </c>
       <c r="L33" s="5" t="s">
         <v>3</v>
@@ -2111,7 +2115,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A34" s="6">
         <v>28</v>
       </c>
@@ -2136,14 +2140,14 @@
       <c r="H34" s="5">
         <v>1</v>
       </c>
-      <c r="I34" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J34" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K34" s="5" t="s">
-        <v>3</v>
+      <c r="I34" s="5">
+        <v>1</v>
+      </c>
+      <c r="J34" s="5">
+        <v>1</v>
+      </c>
+      <c r="K34" s="5">
+        <v>1</v>
       </c>
       <c r="L34" s="5" t="s">
         <v>3</v>
@@ -2161,7 +2165,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" ht="17.25" thickBot="1">
       <c r="A35" s="6">
         <v>29</v>
       </c>
@@ -2186,14 +2190,14 @@
       <c r="H35" s="5">
         <v>1</v>
       </c>
-      <c r="I35" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J35" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K35" s="5" t="s">
-        <v>3</v>
+      <c r="I35" s="5">
+        <v>1</v>
+      </c>
+      <c r="J35" s="5">
+        <v>1</v>
+      </c>
+      <c r="K35" s="5">
+        <v>1</v>
       </c>
       <c r="L35" s="5" t="s">
         <v>3</v>
@@ -2211,7 +2215,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" ht="17.25" thickBot="1">
       <c r="A36" s="6">
         <v>30</v>
       </c>
@@ -2236,14 +2240,14 @@
       <c r="H36" s="5">
         <v>1</v>
       </c>
-      <c r="I36" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J36" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K36" s="5" t="s">
-        <v>3</v>
+      <c r="I36" s="5">
+        <v>1</v>
+      </c>
+      <c r="J36" s="5">
+        <v>1</v>
+      </c>
+      <c r="K36" s="5">
+        <v>1</v>
       </c>
       <c r="L36" s="5" t="s">
         <v>3</v>
@@ -2261,7 +2265,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" ht="17.25" thickBot="1">
       <c r="A37" s="6">
         <v>31</v>
       </c>
@@ -2286,14 +2290,14 @@
       <c r="H37" s="5">
         <v>1</v>
       </c>
-      <c r="I37" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J37" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K37" s="5" t="s">
-        <v>3</v>
+      <c r="I37" s="5">
+        <v>1</v>
+      </c>
+      <c r="J37" s="5">
+        <v>1</v>
+      </c>
+      <c r="K37" s="5">
+        <v>1</v>
       </c>
       <c r="L37" s="5" t="s">
         <v>3</v>
@@ -2311,7 +2315,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" ht="17.25" thickBot="1">
       <c r="A38" s="6">
         <v>32</v>
       </c>
@@ -2336,14 +2340,14 @@
       <c r="H38" s="5">
         <v>1</v>
       </c>
-      <c r="I38" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J38" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K38" s="5" t="s">
-        <v>3</v>
+      <c r="I38" s="5">
+        <v>1</v>
+      </c>
+      <c r="J38" s="5">
+        <v>1</v>
+      </c>
+      <c r="K38" s="5">
+        <v>1</v>
       </c>
       <c r="L38" s="5" t="s">
         <v>3</v>
@@ -2361,7 +2365,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" ht="16.5" customHeight="1" thickBot="1">
       <c r="A39" s="6">
         <v>33</v>
       </c>
@@ -2386,14 +2390,14 @@
       <c r="H39" s="5">
         <v>0</v>
       </c>
-      <c r="I39" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J39" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K39" s="5" t="s">
-        <v>3</v>
+      <c r="I39" s="5">
+        <v>1</v>
+      </c>
+      <c r="J39" s="5">
+        <v>1</v>
+      </c>
+      <c r="K39" s="5">
+        <v>1</v>
       </c>
       <c r="L39" s="5" t="s">
         <v>3</v>
@@ -2411,7 +2415,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" ht="17.25" thickBot="1">
       <c r="A40" s="6">
         <v>34</v>
       </c>
@@ -2436,14 +2440,14 @@
       <c r="H40" s="5">
         <v>0</v>
       </c>
-      <c r="I40" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J40" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K40" s="5" t="s">
-        <v>3</v>
+      <c r="I40" s="5">
+        <v>1</v>
+      </c>
+      <c r="J40" s="5">
+        <v>0</v>
+      </c>
+      <c r="K40" s="5">
+        <v>0</v>
       </c>
       <c r="L40" s="5" t="s">
         <v>3</v>
@@ -2461,7 +2465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" ht="17.25" thickBot="1">
       <c r="A41" s="6">
         <v>35</v>
       </c>
@@ -2486,14 +2490,14 @@
       <c r="H41" s="5">
         <v>1</v>
       </c>
-      <c r="I41" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J41" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K41" s="5" t="s">
-        <v>3</v>
+      <c r="I41" s="5">
+        <v>1</v>
+      </c>
+      <c r="J41" s="5">
+        <v>1</v>
+      </c>
+      <c r="K41" s="5">
+        <v>1</v>
       </c>
       <c r="L41" s="5" t="s">
         <v>3</v>
@@ -2511,7 +2515,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" ht="17.25" thickBot="1">
       <c r="A42" s="6">
         <v>36</v>
       </c>
@@ -2536,14 +2540,14 @@
       <c r="H42" s="5">
         <v>1</v>
       </c>
-      <c r="I42" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J42" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K42" s="5" t="s">
-        <v>3</v>
+      <c r="I42" s="5">
+        <v>1</v>
+      </c>
+      <c r="J42" s="5">
+        <v>1</v>
+      </c>
+      <c r="K42" s="5">
+        <v>1</v>
       </c>
       <c r="L42" s="5" t="s">
         <v>3</v>
@@ -2561,7 +2565,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" ht="17.25" thickBot="1">
       <c r="A43" s="6">
         <v>37</v>
       </c>
@@ -2586,14 +2590,14 @@
       <c r="H43" s="5">
         <v>1</v>
       </c>
-      <c r="I43" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J43" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K43" s="5" t="s">
-        <v>3</v>
+      <c r="I43" s="5">
+        <v>1</v>
+      </c>
+      <c r="J43" s="5">
+        <v>1</v>
+      </c>
+      <c r="K43" s="5">
+        <v>1</v>
       </c>
       <c r="L43" s="5" t="s">
         <v>3</v>
@@ -2611,7 +2615,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" ht="17.25" thickBot="1">
       <c r="A44" s="6">
         <v>38</v>
       </c>
@@ -2636,14 +2640,14 @@
       <c r="H44" s="5">
         <v>0</v>
       </c>
-      <c r="I44" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J44" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K44" s="5" t="s">
-        <v>3</v>
+      <c r="I44" s="5">
+        <v>1</v>
+      </c>
+      <c r="J44" s="5">
+        <v>1</v>
+      </c>
+      <c r="K44" s="5">
+        <v>1</v>
       </c>
       <c r="L44" s="5" t="s">
         <v>3</v>
@@ -2661,7 +2665,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" ht="17.25" thickBot="1">
       <c r="A45" s="6">
         <v>39</v>
       </c>
@@ -2686,14 +2690,14 @@
       <c r="H45" s="5">
         <v>1</v>
       </c>
-      <c r="I45" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J45" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K45" s="5" t="s">
-        <v>3</v>
+      <c r="I45" s="5">
+        <v>1</v>
+      </c>
+      <c r="J45" s="5">
+        <v>1</v>
+      </c>
+      <c r="K45" s="5">
+        <v>1</v>
       </c>
       <c r="L45" s="5" t="s">
         <v>3</v>
@@ -2711,7 +2715,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" ht="17.25" thickBot="1">
       <c r="A46" s="6">
         <v>40</v>
       </c>
@@ -2736,14 +2740,14 @@
       <c r="H46" s="5">
         <v>1</v>
       </c>
-      <c r="I46" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J46" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K46" s="5" t="s">
-        <v>3</v>
+      <c r="I46" s="5">
+        <v>1</v>
+      </c>
+      <c r="J46" s="5">
+        <v>1</v>
+      </c>
+      <c r="K46" s="5">
+        <v>1</v>
       </c>
       <c r="L46" s="5" t="s">
         <v>3</v>
@@ -2761,7 +2765,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" ht="17.25" thickBot="1">
       <c r="A47" s="6">
         <v>41</v>
       </c>
@@ -2786,14 +2790,14 @@
       <c r="H47" s="5">
         <v>1</v>
       </c>
-      <c r="I47" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J47" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K47" s="5" t="s">
-        <v>3</v>
+      <c r="I47" s="5">
+        <v>1</v>
+      </c>
+      <c r="J47" s="5">
+        <v>1</v>
+      </c>
+      <c r="K47" s="5">
+        <v>1</v>
       </c>
       <c r="L47" s="5" t="s">
         <v>3</v>
@@ -2811,7 +2815,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" ht="17.25" thickBot="1">
       <c r="A48" s="6">
         <v>42</v>
       </c>
@@ -2836,14 +2840,14 @@
       <c r="H48" s="5">
         <v>1</v>
       </c>
-      <c r="I48" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J48" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K48" s="5" t="s">
-        <v>3</v>
+      <c r="I48" s="5">
+        <v>1</v>
+      </c>
+      <c r="J48" s="5">
+        <v>1</v>
+      </c>
+      <c r="K48" s="5">
+        <v>1</v>
       </c>
       <c r="L48" s="5" t="s">
         <v>3</v>
@@ -2861,7 +2865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" ht="17.25" thickBot="1">
       <c r="A49" s="6">
         <v>43</v>
       </c>
@@ -2886,14 +2890,14 @@
       <c r="H49" s="5">
         <v>1</v>
       </c>
-      <c r="I49" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J49" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K49" s="5" t="s">
-        <v>3</v>
+      <c r="I49" s="5">
+        <v>1</v>
+      </c>
+      <c r="J49" s="5">
+        <v>1</v>
+      </c>
+      <c r="K49" s="5">
+        <v>1</v>
       </c>
       <c r="L49" s="5" t="s">
         <v>3</v>
@@ -2911,7 +2915,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" ht="17.25" thickBot="1">
       <c r="A50" s="6">
         <v>44</v>
       </c>
@@ -2936,14 +2940,14 @@
       <c r="H50" s="5">
         <v>1</v>
       </c>
-      <c r="I50" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J50" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K50" s="5" t="s">
-        <v>3</v>
+      <c r="I50" s="5">
+        <v>1</v>
+      </c>
+      <c r="J50" s="5">
+        <v>1</v>
+      </c>
+      <c r="K50" s="5">
+        <v>1</v>
       </c>
       <c r="L50" s="5" t="s">
         <v>3</v>
@@ -2961,7 +2965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" ht="17.25" thickBot="1">
       <c r="A51" s="6">
         <v>45</v>
       </c>
@@ -2986,14 +2990,14 @@
       <c r="H51" s="5">
         <v>1</v>
       </c>
-      <c r="I51" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J51" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K51" s="5" t="s">
-        <v>3</v>
+      <c r="I51" s="5">
+        <v>1</v>
+      </c>
+      <c r="J51" s="5">
+        <v>1</v>
+      </c>
+      <c r="K51" s="5">
+        <v>1</v>
       </c>
       <c r="L51" s="5" t="s">
         <v>3</v>
@@ -3011,7 +3015,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" ht="17.25" thickBot="1">
       <c r="A52" s="6">
         <v>46</v>
       </c>
@@ -3036,14 +3040,14 @@
       <c r="H52" s="5">
         <v>1</v>
       </c>
-      <c r="I52" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J52" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K52" s="5" t="s">
-        <v>3</v>
+      <c r="I52" s="5">
+        <v>0</v>
+      </c>
+      <c r="J52" s="5">
+        <v>1</v>
+      </c>
+      <c r="K52" s="5">
+        <v>1</v>
       </c>
       <c r="L52" s="5" t="s">
         <v>3</v>
@@ -3061,7 +3065,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" ht="17.25" thickBot="1">
       <c r="A53" s="6">
         <v>47</v>
       </c>
@@ -3086,14 +3090,14 @@
       <c r="H53" s="5">
         <v>1</v>
       </c>
-      <c r="I53" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J53" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K53" s="5" t="s">
-        <v>3</v>
+      <c r="I53" s="5">
+        <v>1</v>
+      </c>
+      <c r="J53" s="5">
+        <v>1</v>
+      </c>
+      <c r="K53" s="5">
+        <v>1</v>
       </c>
       <c r="L53" s="5" t="s">
         <v>3</v>
@@ -3111,7 +3115,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" ht="17.25" thickBot="1">
       <c r="A54" s="6">
         <v>48</v>
       </c>
@@ -3136,14 +3140,14 @@
       <c r="H54" s="5">
         <v>1</v>
       </c>
-      <c r="I54" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J54" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K54" s="5" t="s">
-        <v>3</v>
+      <c r="I54" s="5">
+        <v>1</v>
+      </c>
+      <c r="J54" s="5">
+        <v>1</v>
+      </c>
+      <c r="K54" s="5">
+        <v>1</v>
       </c>
       <c r="L54" s="5" t="s">
         <v>3</v>

--- a/SE-CPE4A-19-20-ATTENDANCE.xlsx
+++ b/SE-CPE4A-19-20-ATTENDANCE.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="56">
   <si>
     <t>#</t>
   </si>
@@ -635,8 +635,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="C25" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6:M54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -749,11 +749,11 @@
       <c r="K6" s="4">
         <v>43873</v>
       </c>
-      <c r="L6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>3</v>
+      <c r="L6" s="4">
+        <v>43874</v>
+      </c>
+      <c r="M6" s="4">
+        <v>43880</v>
       </c>
       <c r="N6" s="4" t="s">
         <v>3</v>
@@ -799,11 +799,11 @@
       <c r="K7" s="5">
         <v>1</v>
       </c>
-      <c r="L7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>3</v>
+      <c r="L7" s="5">
+        <v>1</v>
+      </c>
+      <c r="M7" s="5">
+        <v>1</v>
       </c>
       <c r="N7" s="5" t="s">
         <v>3</v>
@@ -849,11 +849,11 @@
       <c r="K8" s="5">
         <v>1</v>
       </c>
-      <c r="L8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>3</v>
+      <c r="L8" s="5">
+        <v>1</v>
+      </c>
+      <c r="M8" s="5">
+        <v>1</v>
       </c>
       <c r="N8" s="5" t="s">
         <v>3</v>
@@ -899,11 +899,11 @@
       <c r="K9" s="5">
         <v>1</v>
       </c>
-      <c r="L9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>3</v>
+      <c r="L9" s="5">
+        <v>1</v>
+      </c>
+      <c r="M9" s="5">
+        <v>1</v>
       </c>
       <c r="N9" s="5" t="s">
         <v>3</v>
@@ -949,11 +949,11 @@
       <c r="K10" s="5">
         <v>1</v>
       </c>
-      <c r="L10" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>3</v>
+      <c r="L10" s="5">
+        <v>1</v>
+      </c>
+      <c r="M10" s="5">
+        <v>1</v>
       </c>
       <c r="N10" s="5" t="s">
         <v>3</v>
@@ -999,11 +999,11 @@
       <c r="K11" s="5">
         <v>1</v>
       </c>
-      <c r="L11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>3</v>
+      <c r="L11" s="5">
+        <v>1</v>
+      </c>
+      <c r="M11" s="5">
+        <v>1</v>
       </c>
       <c r="N11" s="5" t="s">
         <v>3</v>
@@ -1049,11 +1049,11 @@
       <c r="K12" s="5">
         <v>1</v>
       </c>
-      <c r="L12" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>3</v>
+      <c r="L12" s="5">
+        <v>1</v>
+      </c>
+      <c r="M12" s="5">
+        <v>1</v>
       </c>
       <c r="N12" s="5" t="s">
         <v>3</v>
@@ -1099,11 +1099,11 @@
       <c r="K13" s="5">
         <v>0</v>
       </c>
-      <c r="L13" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>3</v>
+      <c r="L13" s="5">
+        <v>1</v>
+      </c>
+      <c r="M13" s="5">
+        <v>1</v>
       </c>
       <c r="N13" s="5" t="s">
         <v>3</v>
@@ -1149,11 +1149,11 @@
       <c r="K14" s="5">
         <v>1</v>
       </c>
-      <c r="L14" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>3</v>
+      <c r="L14" s="5">
+        <v>1</v>
+      </c>
+      <c r="M14" s="5">
+        <v>1</v>
       </c>
       <c r="N14" s="5" t="s">
         <v>3</v>
@@ -1199,11 +1199,11 @@
       <c r="K15" s="5">
         <v>1</v>
       </c>
-      <c r="L15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>3</v>
+      <c r="L15" s="5">
+        <v>1</v>
+      </c>
+      <c r="M15" s="5">
+        <v>1</v>
       </c>
       <c r="N15" s="5" t="s">
         <v>3</v>
@@ -1249,11 +1249,11 @@
       <c r="K16" s="5">
         <v>0</v>
       </c>
-      <c r="L16" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M16" s="5" t="s">
-        <v>3</v>
+      <c r="L16" s="5">
+        <v>1</v>
+      </c>
+      <c r="M16" s="5">
+        <v>1</v>
       </c>
       <c r="N16" s="5" t="s">
         <v>3</v>
@@ -1299,11 +1299,11 @@
       <c r="K17" s="5">
         <v>1</v>
       </c>
-      <c r="L17" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M17" s="5" t="s">
-        <v>3</v>
+      <c r="L17" s="5">
+        <v>1</v>
+      </c>
+      <c r="M17" s="5">
+        <v>1</v>
       </c>
       <c r="N17" s="5" t="s">
         <v>3</v>
@@ -1349,11 +1349,11 @@
       <c r="K18" s="5">
         <v>1</v>
       </c>
-      <c r="L18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M18" s="5" t="s">
-        <v>3</v>
+      <c r="L18" s="5">
+        <v>1</v>
+      </c>
+      <c r="M18" s="5">
+        <v>1</v>
       </c>
       <c r="N18" s="5" t="s">
         <v>3</v>
@@ -1399,11 +1399,11 @@
       <c r="K19" s="5">
         <v>1</v>
       </c>
-      <c r="L19" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M19" s="5" t="s">
-        <v>3</v>
+      <c r="L19" s="5">
+        <v>1</v>
+      </c>
+      <c r="M19" s="5">
+        <v>1</v>
       </c>
       <c r="N19" s="5" t="s">
         <v>3</v>
@@ -1449,11 +1449,11 @@
       <c r="K20" s="5">
         <v>1</v>
       </c>
-      <c r="L20" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M20" s="5" t="s">
-        <v>3</v>
+      <c r="L20" s="5">
+        <v>1</v>
+      </c>
+      <c r="M20" s="5">
+        <v>1</v>
       </c>
       <c r="N20" s="5" t="s">
         <v>3</v>
@@ -1499,11 +1499,11 @@
       <c r="K21" s="5">
         <v>1</v>
       </c>
-      <c r="L21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M21" s="5" t="s">
-        <v>3</v>
+      <c r="L21" s="5">
+        <v>1</v>
+      </c>
+      <c r="M21" s="5">
+        <v>1</v>
       </c>
       <c r="N21" s="5" t="s">
         <v>3</v>
@@ -1549,11 +1549,11 @@
       <c r="K22" s="5">
         <v>1</v>
       </c>
-      <c r="L22" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M22" s="5" t="s">
-        <v>3</v>
+      <c r="L22" s="5">
+        <v>1</v>
+      </c>
+      <c r="M22" s="5">
+        <v>1</v>
       </c>
       <c r="N22" s="5" t="s">
         <v>3</v>
@@ -1599,11 +1599,11 @@
       <c r="K23" s="5">
         <v>1</v>
       </c>
-      <c r="L23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M23" s="5" t="s">
-        <v>3</v>
+      <c r="L23" s="5">
+        <v>1</v>
+      </c>
+      <c r="M23" s="5">
+        <v>1</v>
       </c>
       <c r="N23" s="5" t="s">
         <v>3</v>
@@ -1649,11 +1649,11 @@
       <c r="K24" s="5">
         <v>1</v>
       </c>
-      <c r="L24" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M24" s="5" t="s">
-        <v>3</v>
+      <c r="L24" s="5">
+        <v>1</v>
+      </c>
+      <c r="M24" s="5">
+        <v>1</v>
       </c>
       <c r="N24" s="5" t="s">
         <v>3</v>
@@ -1699,11 +1699,11 @@
       <c r="K25" s="5">
         <v>1</v>
       </c>
-      <c r="L25" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M25" s="5" t="s">
-        <v>3</v>
+      <c r="L25" s="5">
+        <v>1</v>
+      </c>
+      <c r="M25" s="5">
+        <v>1</v>
       </c>
       <c r="N25" s="5" t="s">
         <v>3</v>
@@ -1749,11 +1749,11 @@
       <c r="K26" s="5">
         <v>1</v>
       </c>
-      <c r="L26" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M26" s="5" t="s">
-        <v>3</v>
+      <c r="L26" s="5">
+        <v>1</v>
+      </c>
+      <c r="M26" s="5">
+        <v>1</v>
       </c>
       <c r="N26" s="5" t="s">
         <v>3</v>
@@ -1799,11 +1799,11 @@
       <c r="K27" s="5">
         <v>1</v>
       </c>
-      <c r="L27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M27" s="5" t="s">
-        <v>3</v>
+      <c r="L27" s="5">
+        <v>1</v>
+      </c>
+      <c r="M27" s="5">
+        <v>1</v>
       </c>
       <c r="N27" s="5" t="s">
         <v>3</v>
@@ -1849,11 +1849,11 @@
       <c r="K28" s="5">
         <v>1</v>
       </c>
-      <c r="L28" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M28" s="5" t="s">
-        <v>3</v>
+      <c r="L28" s="5">
+        <v>1</v>
+      </c>
+      <c r="M28" s="5">
+        <v>1</v>
       </c>
       <c r="N28" s="5" t="s">
         <v>3</v>
@@ -1899,11 +1899,11 @@
       <c r="K29" s="5">
         <v>1</v>
       </c>
-      <c r="L29" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M29" s="5" t="s">
-        <v>3</v>
+      <c r="L29" s="5">
+        <v>1</v>
+      </c>
+      <c r="M29" s="5">
+        <v>1</v>
       </c>
       <c r="N29" s="5" t="s">
         <v>3</v>
@@ -1949,11 +1949,11 @@
       <c r="K30" s="5">
         <v>1</v>
       </c>
-      <c r="L30" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M30" s="5" t="s">
-        <v>3</v>
+      <c r="L30" s="5">
+        <v>1</v>
+      </c>
+      <c r="M30" s="5">
+        <v>1</v>
       </c>
       <c r="N30" s="5" t="s">
         <v>3</v>
@@ -1999,11 +1999,11 @@
       <c r="K31" s="5">
         <v>1</v>
       </c>
-      <c r="L31" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M31" s="5" t="s">
-        <v>3</v>
+      <c r="L31" s="5">
+        <v>1</v>
+      </c>
+      <c r="M31" s="5">
+        <v>1</v>
       </c>
       <c r="N31" s="5" t="s">
         <v>3</v>
@@ -2049,11 +2049,11 @@
       <c r="K32" s="5">
         <v>1</v>
       </c>
-      <c r="L32" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M32" s="5" t="s">
-        <v>3</v>
+      <c r="L32" s="5">
+        <v>1</v>
+      </c>
+      <c r="M32" s="5">
+        <v>1</v>
       </c>
       <c r="N32" s="5" t="s">
         <v>3</v>
@@ -2099,11 +2099,11 @@
       <c r="K33" s="5">
         <v>1</v>
       </c>
-      <c r="L33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M33" s="5" t="s">
-        <v>3</v>
+      <c r="L33" s="5">
+        <v>1</v>
+      </c>
+      <c r="M33" s="5">
+        <v>1</v>
       </c>
       <c r="N33" s="5" t="s">
         <v>3</v>
@@ -2149,11 +2149,11 @@
       <c r="K34" s="5">
         <v>1</v>
       </c>
-      <c r="L34" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M34" s="5" t="s">
-        <v>3</v>
+      <c r="L34" s="5">
+        <v>1</v>
+      </c>
+      <c r="M34" s="5">
+        <v>1</v>
       </c>
       <c r="N34" s="5" t="s">
         <v>3</v>
@@ -2199,11 +2199,11 @@
       <c r="K35" s="5">
         <v>1</v>
       </c>
-      <c r="L35" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M35" s="5" t="s">
-        <v>3</v>
+      <c r="L35" s="5">
+        <v>1</v>
+      </c>
+      <c r="M35" s="5">
+        <v>1</v>
       </c>
       <c r="N35" s="5" t="s">
         <v>3</v>
@@ -2249,11 +2249,11 @@
       <c r="K36" s="5">
         <v>1</v>
       </c>
-      <c r="L36" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M36" s="5" t="s">
-        <v>3</v>
+      <c r="L36" s="5">
+        <v>1</v>
+      </c>
+      <c r="M36" s="5">
+        <v>1</v>
       </c>
       <c r="N36" s="5" t="s">
         <v>3</v>
@@ -2299,11 +2299,11 @@
       <c r="K37" s="5">
         <v>1</v>
       </c>
-      <c r="L37" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M37" s="5" t="s">
-        <v>3</v>
+      <c r="L37" s="5">
+        <v>1</v>
+      </c>
+      <c r="M37" s="5">
+        <v>1</v>
       </c>
       <c r="N37" s="5" t="s">
         <v>3</v>
@@ -2349,11 +2349,11 @@
       <c r="K38" s="5">
         <v>1</v>
       </c>
-      <c r="L38" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M38" s="5" t="s">
-        <v>3</v>
+      <c r="L38" s="5">
+        <v>1</v>
+      </c>
+      <c r="M38" s="5">
+        <v>1</v>
       </c>
       <c r="N38" s="5" t="s">
         <v>3</v>
@@ -2399,11 +2399,11 @@
       <c r="K39" s="5">
         <v>1</v>
       </c>
-      <c r="L39" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M39" s="5" t="s">
-        <v>3</v>
+      <c r="L39" s="5">
+        <v>1</v>
+      </c>
+      <c r="M39" s="5">
+        <v>1</v>
       </c>
       <c r="N39" s="5" t="s">
         <v>3</v>
@@ -2449,11 +2449,11 @@
       <c r="K40" s="5">
         <v>0</v>
       </c>
-      <c r="L40" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M40" s="5" t="s">
-        <v>3</v>
+      <c r="L40" s="5">
+        <v>1</v>
+      </c>
+      <c r="M40" s="5">
+        <v>1</v>
       </c>
       <c r="N40" s="5" t="s">
         <v>3</v>
@@ -2499,11 +2499,11 @@
       <c r="K41" s="5">
         <v>1</v>
       </c>
-      <c r="L41" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M41" s="5" t="s">
-        <v>3</v>
+      <c r="L41" s="5">
+        <v>1</v>
+      </c>
+      <c r="M41" s="5">
+        <v>1</v>
       </c>
       <c r="N41" s="5" t="s">
         <v>3</v>
@@ -2549,11 +2549,11 @@
       <c r="K42" s="5">
         <v>1</v>
       </c>
-      <c r="L42" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M42" s="5" t="s">
-        <v>3</v>
+      <c r="L42" s="5">
+        <v>1</v>
+      </c>
+      <c r="M42" s="5">
+        <v>1</v>
       </c>
       <c r="N42" s="5" t="s">
         <v>3</v>
@@ -2599,11 +2599,11 @@
       <c r="K43" s="5">
         <v>1</v>
       </c>
-      <c r="L43" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M43" s="5" t="s">
-        <v>3</v>
+      <c r="L43" s="5">
+        <v>1</v>
+      </c>
+      <c r="M43" s="5">
+        <v>1</v>
       </c>
       <c r="N43" s="5" t="s">
         <v>3</v>
@@ -2649,11 +2649,11 @@
       <c r="K44" s="5">
         <v>1</v>
       </c>
-      <c r="L44" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M44" s="5" t="s">
-        <v>3</v>
+      <c r="L44" s="5">
+        <v>1</v>
+      </c>
+      <c r="M44" s="5">
+        <v>1</v>
       </c>
       <c r="N44" s="5" t="s">
         <v>3</v>
@@ -2699,11 +2699,11 @@
       <c r="K45" s="5">
         <v>1</v>
       </c>
-      <c r="L45" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M45" s="5" t="s">
-        <v>3</v>
+      <c r="L45" s="5">
+        <v>1</v>
+      </c>
+      <c r="M45" s="5">
+        <v>1</v>
       </c>
       <c r="N45" s="5" t="s">
         <v>3</v>
@@ -2749,11 +2749,11 @@
       <c r="K46" s="5">
         <v>1</v>
       </c>
-      <c r="L46" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M46" s="5" t="s">
-        <v>3</v>
+      <c r="L46" s="5">
+        <v>1</v>
+      </c>
+      <c r="M46" s="5">
+        <v>1</v>
       </c>
       <c r="N46" s="5" t="s">
         <v>3</v>
@@ -2799,11 +2799,11 @@
       <c r="K47" s="5">
         <v>1</v>
       </c>
-      <c r="L47" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M47" s="5" t="s">
-        <v>3</v>
+      <c r="L47" s="5">
+        <v>1</v>
+      </c>
+      <c r="M47" s="5">
+        <v>1</v>
       </c>
       <c r="N47" s="5" t="s">
         <v>3</v>
@@ -2849,11 +2849,11 @@
       <c r="K48" s="5">
         <v>1</v>
       </c>
-      <c r="L48" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M48" s="5" t="s">
-        <v>3</v>
+      <c r="L48" s="5">
+        <v>1</v>
+      </c>
+      <c r="M48" s="5">
+        <v>1</v>
       </c>
       <c r="N48" s="5" t="s">
         <v>3</v>
@@ -2899,11 +2899,11 @@
       <c r="K49" s="5">
         <v>1</v>
       </c>
-      <c r="L49" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M49" s="5" t="s">
-        <v>3</v>
+      <c r="L49" s="5">
+        <v>1</v>
+      </c>
+      <c r="M49" s="5">
+        <v>1</v>
       </c>
       <c r="N49" s="5" t="s">
         <v>3</v>
@@ -2949,11 +2949,11 @@
       <c r="K50" s="5">
         <v>1</v>
       </c>
-      <c r="L50" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M50" s="5" t="s">
-        <v>3</v>
+      <c r="L50" s="5">
+        <v>1</v>
+      </c>
+      <c r="M50" s="5">
+        <v>1</v>
       </c>
       <c r="N50" s="5" t="s">
         <v>3</v>
@@ -2999,11 +2999,11 @@
       <c r="K51" s="5">
         <v>1</v>
       </c>
-      <c r="L51" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M51" s="5" t="s">
-        <v>3</v>
+      <c r="L51" s="5">
+        <v>1</v>
+      </c>
+      <c r="M51" s="5">
+        <v>1</v>
       </c>
       <c r="N51" s="5" t="s">
         <v>3</v>
@@ -3049,11 +3049,11 @@
       <c r="K52" s="5">
         <v>1</v>
       </c>
-      <c r="L52" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M52" s="5" t="s">
-        <v>3</v>
+      <c r="L52" s="5">
+        <v>1</v>
+      </c>
+      <c r="M52" s="5">
+        <v>1</v>
       </c>
       <c r="N52" s="5" t="s">
         <v>3</v>
@@ -3099,11 +3099,11 @@
       <c r="K53" s="5">
         <v>1</v>
       </c>
-      <c r="L53" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M53" s="5" t="s">
-        <v>3</v>
+      <c r="L53" s="5">
+        <v>0</v>
+      </c>
+      <c r="M53" s="5">
+        <v>0</v>
       </c>
       <c r="N53" s="5" t="s">
         <v>3</v>
@@ -3149,11 +3149,11 @@
       <c r="K54" s="5">
         <v>1</v>
       </c>
-      <c r="L54" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M54" s="5" t="s">
-        <v>3</v>
+      <c r="L54" s="5">
+        <v>1</v>
+      </c>
+      <c r="M54" s="5">
+        <v>1</v>
       </c>
       <c r="N54" s="5" t="s">
         <v>3</v>

--- a/SE-CPE4A-19-20-ATTENDANCE.xlsx
+++ b/SE-CPE4A-19-20-ATTENDANCE.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="56">
   <si>
     <t>#</t>
   </si>
@@ -206,7 +206,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,6 +251,14 @@
       <sz val="11"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -306,7 +314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -347,6 +355,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -633,10 +642,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P54"/>
+  <dimension ref="A1:Q54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C25" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6:M54"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -650,9 +659,10 @@
     <col min="11" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="60" customHeight="1">
+    <row r="1" spans="1:17" ht="60" customHeight="1">
       <c r="A1" s="11" t="s">
         <v>52</v>
       </c>
@@ -672,7 +682,7 @@
       <c r="O1" s="11"/>
       <c r="P1" s="11"/>
     </row>
-    <row r="2" spans="1:16" ht="58.5" customHeight="1">
+    <row r="2" spans="1:17" ht="58.5" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>53</v>
       </c>
@@ -692,7 +702,7 @@
       <c r="O2" s="12"/>
       <c r="P2" s="12"/>
     </row>
-    <row r="3" spans="1:16" ht="15" customHeight="1">
+    <row r="3" spans="1:17" ht="15" customHeight="1">
       <c r="A3" s="13" t="s">
         <v>54</v>
       </c>
@@ -712,10 +722,10 @@
       <c r="O3" s="13"/>
       <c r="P3" s="13"/>
     </row>
-    <row r="5" spans="1:16" ht="23.25" customHeight="1" thickBot="1">
+    <row r="5" spans="1:17" ht="23.25" customHeight="1" thickBot="1">
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:16" ht="23.25" customHeight="1" thickBot="1">
+    <row r="6" spans="1:17" ht="23.25" customHeight="1" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
@@ -755,17 +765,20 @@
       <c r="M6" s="4">
         <v>43880</v>
       </c>
-      <c r="N6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+      <c r="N6" s="4">
+        <v>43881</v>
+      </c>
+      <c r="O6" s="4">
+        <v>43887</v>
+      </c>
+      <c r="P6" s="4">
+        <v>43888</v>
+      </c>
+      <c r="Q6" s="14">
+        <v>43894</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
       <c r="A7" s="6">
         <v>1</v>
       </c>
@@ -805,17 +818,20 @@
       <c r="M7" s="5">
         <v>1</v>
       </c>
-      <c r="N7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+      <c r="N7" s="5">
+        <v>1</v>
+      </c>
+      <c r="O7" s="5">
+        <v>1</v>
+      </c>
+      <c r="P7" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
       <c r="A8" s="6">
         <v>2</v>
       </c>
@@ -855,17 +871,20 @@
       <c r="M8" s="5">
         <v>1</v>
       </c>
-      <c r="N8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+      <c r="N8" s="5">
+        <v>1</v>
+      </c>
+      <c r="O8" s="5">
+        <v>1</v>
+      </c>
+      <c r="P8" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
       <c r="A9" s="6">
         <v>3</v>
       </c>
@@ -905,17 +924,20 @@
       <c r="M9" s="5">
         <v>1</v>
       </c>
-      <c r="N9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="O9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="P9" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+      <c r="N9" s="5">
+        <v>1</v>
+      </c>
+      <c r="O9" s="5">
+        <v>1</v>
+      </c>
+      <c r="P9" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
       <c r="A10" s="6">
         <v>4</v>
       </c>
@@ -955,17 +977,20 @@
       <c r="M10" s="5">
         <v>1</v>
       </c>
-      <c r="N10" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="O10" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="P10" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+      <c r="N10" s="5">
+        <v>1</v>
+      </c>
+      <c r="O10" s="5">
+        <v>1</v>
+      </c>
+      <c r="P10" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
       <c r="A11" s="6">
         <v>5</v>
       </c>
@@ -1005,17 +1030,20 @@
       <c r="M11" s="5">
         <v>1</v>
       </c>
-      <c r="N11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="O11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="P11" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+      <c r="N11" s="5">
+        <v>1</v>
+      </c>
+      <c r="O11" s="5">
+        <v>1</v>
+      </c>
+      <c r="P11" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
       <c r="A12" s="6">
         <v>6</v>
       </c>
@@ -1055,17 +1083,20 @@
       <c r="M12" s="5">
         <v>1</v>
       </c>
-      <c r="N12" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="O12" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="P12" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="17.25" customHeight="1" thickBot="1">
+      <c r="N12" s="5">
+        <v>1</v>
+      </c>
+      <c r="O12" s="5">
+        <v>1</v>
+      </c>
+      <c r="P12" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="17.25" customHeight="1" thickBot="1">
       <c r="A13" s="6">
         <v>7</v>
       </c>
@@ -1105,17 +1136,20 @@
       <c r="M13" s="5">
         <v>1</v>
       </c>
-      <c r="N13" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="O13" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="P13" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+      <c r="N13" s="5">
+        <v>1</v>
+      </c>
+      <c r="O13" s="5">
+        <v>1</v>
+      </c>
+      <c r="P13" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
       <c r="A14" s="6">
         <v>8</v>
       </c>
@@ -1155,17 +1189,20 @@
       <c r="M14" s="5">
         <v>1</v>
       </c>
-      <c r="N14" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="O14" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="P14" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+      <c r="N14" s="5">
+        <v>1</v>
+      </c>
+      <c r="O14" s="5">
+        <v>1</v>
+      </c>
+      <c r="P14" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
       <c r="A15" s="6">
         <v>9</v>
       </c>
@@ -1205,17 +1242,20 @@
       <c r="M15" s="5">
         <v>1</v>
       </c>
-      <c r="N15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="O15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="P15" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+      <c r="N15" s="5">
+        <v>1</v>
+      </c>
+      <c r="O15" s="5">
+        <v>1</v>
+      </c>
+      <c r="P15" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
       <c r="A16" s="6">
         <v>10</v>
       </c>
@@ -1255,17 +1295,20 @@
       <c r="M16" s="5">
         <v>1</v>
       </c>
-      <c r="N16" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="O16" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="P16" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+      <c r="N16" s="5">
+        <v>1</v>
+      </c>
+      <c r="O16" s="5">
+        <v>1</v>
+      </c>
+      <c r="P16" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
       <c r="A17" s="6">
         <v>11</v>
       </c>
@@ -1305,17 +1348,20 @@
       <c r="M17" s="5">
         <v>1</v>
       </c>
-      <c r="N17" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="O17" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="P17" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+      <c r="N17" s="5">
+        <v>1</v>
+      </c>
+      <c r="O17" s="5">
+        <v>1</v>
+      </c>
+      <c r="P17" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
       <c r="A18" s="6">
         <v>12</v>
       </c>
@@ -1355,17 +1401,20 @@
       <c r="M18" s="5">
         <v>1</v>
       </c>
-      <c r="N18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="O18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="P18" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="17.25" thickBot="1">
+      <c r="N18" s="5">
+        <v>1</v>
+      </c>
+      <c r="O18" s="5">
+        <v>1</v>
+      </c>
+      <c r="P18" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="17.25" thickBot="1">
       <c r="A19" s="6">
         <v>13</v>
       </c>
@@ -1405,17 +1454,20 @@
       <c r="M19" s="5">
         <v>1</v>
       </c>
-      <c r="N19" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="O19" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="P19" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+      <c r="N19" s="5">
+        <v>1</v>
+      </c>
+      <c r="O19" s="5">
+        <v>1</v>
+      </c>
+      <c r="P19" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
       <c r="A20" s="6">
         <v>14</v>
       </c>
@@ -1455,17 +1507,20 @@
       <c r="M20" s="5">
         <v>1</v>
       </c>
-      <c r="N20" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="O20" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="P20" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+      <c r="N20" s="5">
+        <v>1</v>
+      </c>
+      <c r="O20" s="5">
+        <v>1</v>
+      </c>
+      <c r="P20" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
       <c r="A21" s="6">
         <v>15</v>
       </c>
@@ -1505,17 +1560,20 @@
       <c r="M21" s="5">
         <v>1</v>
       </c>
-      <c r="N21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="O21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="P21" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+      <c r="N21" s="5">
+        <v>1</v>
+      </c>
+      <c r="O21" s="5">
+        <v>1</v>
+      </c>
+      <c r="P21" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
       <c r="A22" s="6">
         <v>16</v>
       </c>
@@ -1555,17 +1613,20 @@
       <c r="M22" s="5">
         <v>1</v>
       </c>
-      <c r="N22" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="O22" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="P22" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+      <c r="N22" s="5">
+        <v>1</v>
+      </c>
+      <c r="O22" s="5">
+        <v>1</v>
+      </c>
+      <c r="P22" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
       <c r="A23" s="6">
         <v>17</v>
       </c>
@@ -1605,17 +1666,20 @@
       <c r="M23" s="5">
         <v>1</v>
       </c>
-      <c r="N23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="O23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="P23" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+      <c r="N23" s="5">
+        <v>1</v>
+      </c>
+      <c r="O23" s="5">
+        <v>1</v>
+      </c>
+      <c r="P23" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
       <c r="A24" s="6">
         <v>18</v>
       </c>
@@ -1655,17 +1719,20 @@
       <c r="M24" s="5">
         <v>1</v>
       </c>
-      <c r="N24" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="O24" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="P24" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+      <c r="N24" s="5">
+        <v>1</v>
+      </c>
+      <c r="O24" s="5">
+        <v>1</v>
+      </c>
+      <c r="P24" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
       <c r="A25" s="6">
         <v>19</v>
       </c>
@@ -1705,17 +1772,20 @@
       <c r="M25" s="5">
         <v>1</v>
       </c>
-      <c r="N25" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="O25" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="P25" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+      <c r="N25" s="5">
+        <v>1</v>
+      </c>
+      <c r="O25" s="5">
+        <v>1</v>
+      </c>
+      <c r="P25" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
       <c r="A26" s="6">
         <v>20</v>
       </c>
@@ -1755,17 +1825,20 @@
       <c r="M26" s="5">
         <v>1</v>
       </c>
-      <c r="N26" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="O26" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="P26" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+      <c r="N26" s="5">
+        <v>0</v>
+      </c>
+      <c r="O26" s="5">
+        <v>0</v>
+      </c>
+      <c r="P26" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
       <c r="A27" s="6">
         <v>21</v>
       </c>
@@ -1805,17 +1878,20 @@
       <c r="M27" s="5">
         <v>1</v>
       </c>
-      <c r="N27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="O27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="P27" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+      <c r="N27" s="5">
+        <v>1</v>
+      </c>
+      <c r="O27" s="5">
+        <v>1</v>
+      </c>
+      <c r="P27" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
       <c r="A28" s="6">
         <v>22</v>
       </c>
@@ -1855,17 +1931,20 @@
       <c r="M28" s="5">
         <v>1</v>
       </c>
-      <c r="N28" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="O28" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="P28" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+      <c r="N28" s="5">
+        <v>1</v>
+      </c>
+      <c r="O28" s="5">
+        <v>1</v>
+      </c>
+      <c r="P28" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
       <c r="A29" s="6">
         <v>23</v>
       </c>
@@ -1905,17 +1984,20 @@
       <c r="M29" s="5">
         <v>1</v>
       </c>
-      <c r="N29" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="O29" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="P29" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+      <c r="N29" s="5">
+        <v>1</v>
+      </c>
+      <c r="O29" s="5">
+        <v>1</v>
+      </c>
+      <c r="P29" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
       <c r="A30" s="6">
         <v>24</v>
       </c>
@@ -1955,17 +2037,20 @@
       <c r="M30" s="5">
         <v>1</v>
       </c>
-      <c r="N30" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="O30" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="P30" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+      <c r="N30" s="5">
+        <v>0</v>
+      </c>
+      <c r="O30" s="5">
+        <v>0</v>
+      </c>
+      <c r="P30" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
       <c r="A31" s="6">
         <v>25</v>
       </c>
@@ -2005,17 +2090,20 @@
       <c r="M31" s="5">
         <v>1</v>
       </c>
-      <c r="N31" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="O31" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="P31" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+      <c r="N31" s="5">
+        <v>1</v>
+      </c>
+      <c r="O31" s="5">
+        <v>1</v>
+      </c>
+      <c r="P31" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
       <c r="A32" s="6">
         <v>26</v>
       </c>
@@ -2055,17 +2143,20 @@
       <c r="M32" s="5">
         <v>1</v>
       </c>
-      <c r="N32" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="O32" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="P32" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+      <c r="N32" s="5">
+        <v>1</v>
+      </c>
+      <c r="O32" s="5">
+        <v>1</v>
+      </c>
+      <c r="P32" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
       <c r="A33" s="6">
         <v>27</v>
       </c>
@@ -2105,17 +2196,20 @@
       <c r="M33" s="5">
         <v>1</v>
       </c>
-      <c r="N33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="O33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="P33" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+      <c r="N33" s="5">
+        <v>1</v>
+      </c>
+      <c r="O33" s="5">
+        <v>1</v>
+      </c>
+      <c r="P33" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
       <c r="A34" s="6">
         <v>28</v>
       </c>
@@ -2155,17 +2249,20 @@
       <c r="M34" s="5">
         <v>1</v>
       </c>
-      <c r="N34" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="O34" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="P34" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" ht="17.25" thickBot="1">
+      <c r="N34" s="5">
+        <v>1</v>
+      </c>
+      <c r="O34" s="5">
+        <v>1</v>
+      </c>
+      <c r="P34" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="17.25" thickBot="1">
       <c r="A35" s="6">
         <v>29</v>
       </c>
@@ -2205,17 +2302,20 @@
       <c r="M35" s="5">
         <v>1</v>
       </c>
-      <c r="N35" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="O35" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="P35" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" ht="17.25" thickBot="1">
+      <c r="N35" s="5">
+        <v>1</v>
+      </c>
+      <c r="O35" s="5">
+        <v>1</v>
+      </c>
+      <c r="P35" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="17.25" thickBot="1">
       <c r="A36" s="6">
         <v>30</v>
       </c>
@@ -2255,17 +2355,20 @@
       <c r="M36" s="5">
         <v>1</v>
       </c>
-      <c r="N36" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="O36" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="P36" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" ht="17.25" thickBot="1">
+      <c r="N36" s="5">
+        <v>1</v>
+      </c>
+      <c r="O36" s="5">
+        <v>1</v>
+      </c>
+      <c r="P36" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="17.25" thickBot="1">
       <c r="A37" s="6">
         <v>31</v>
       </c>
@@ -2305,17 +2408,20 @@
       <c r="M37" s="5">
         <v>1</v>
       </c>
-      <c r="N37" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="O37" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="P37" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" ht="17.25" thickBot="1">
+      <c r="N37" s="5">
+        <v>1</v>
+      </c>
+      <c r="O37" s="5">
+        <v>1</v>
+      </c>
+      <c r="P37" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="17.25" thickBot="1">
       <c r="A38" s="6">
         <v>32</v>
       </c>
@@ -2355,17 +2461,20 @@
       <c r="M38" s="5">
         <v>1</v>
       </c>
-      <c r="N38" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="O38" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="P38" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" ht="16.5" customHeight="1" thickBot="1">
+      <c r="N38" s="5">
+        <v>1</v>
+      </c>
+      <c r="O38" s="5">
+        <v>1</v>
+      </c>
+      <c r="P38" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="16.5" customHeight="1" thickBot="1">
       <c r="A39" s="6">
         <v>33</v>
       </c>
@@ -2405,17 +2514,20 @@
       <c r="M39" s="5">
         <v>1</v>
       </c>
-      <c r="N39" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="O39" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="P39" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" ht="17.25" thickBot="1">
+      <c r="N39" s="5">
+        <v>1</v>
+      </c>
+      <c r="O39" s="5">
+        <v>1</v>
+      </c>
+      <c r="P39" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="17.25" thickBot="1">
       <c r="A40" s="6">
         <v>34</v>
       </c>
@@ -2455,17 +2567,20 @@
       <c r="M40" s="5">
         <v>1</v>
       </c>
-      <c r="N40" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="O40" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="P40" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" ht="17.25" thickBot="1">
+      <c r="N40" s="5">
+        <v>0</v>
+      </c>
+      <c r="O40" s="5">
+        <v>0</v>
+      </c>
+      <c r="P40" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="17.25" thickBot="1">
       <c r="A41" s="6">
         <v>35</v>
       </c>
@@ -2505,17 +2620,20 @@
       <c r="M41" s="5">
         <v>1</v>
       </c>
-      <c r="N41" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="O41" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="P41" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" ht="17.25" thickBot="1">
+      <c r="N41" s="5">
+        <v>0</v>
+      </c>
+      <c r="O41" s="5">
+        <v>0</v>
+      </c>
+      <c r="P41" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="17.25" thickBot="1">
       <c r="A42" s="6">
         <v>36</v>
       </c>
@@ -2555,17 +2673,20 @@
       <c r="M42" s="5">
         <v>1</v>
       </c>
-      <c r="N42" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="O42" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="P42" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" ht="17.25" thickBot="1">
+      <c r="N42" s="5">
+        <v>1</v>
+      </c>
+      <c r="O42" s="5">
+        <v>1</v>
+      </c>
+      <c r="P42" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="17.25" thickBot="1">
       <c r="A43" s="6">
         <v>37</v>
       </c>
@@ -2605,17 +2726,20 @@
       <c r="M43" s="5">
         <v>1</v>
       </c>
-      <c r="N43" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="O43" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="P43" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" ht="17.25" thickBot="1">
+      <c r="N43" s="5">
+        <v>1</v>
+      </c>
+      <c r="O43" s="5">
+        <v>1</v>
+      </c>
+      <c r="P43" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="17.25" thickBot="1">
       <c r="A44" s="6">
         <v>38</v>
       </c>
@@ -2655,17 +2779,20 @@
       <c r="M44" s="5">
         <v>1</v>
       </c>
-      <c r="N44" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="O44" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="P44" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" ht="17.25" thickBot="1">
+      <c r="N44" s="5">
+        <v>1</v>
+      </c>
+      <c r="O44" s="5">
+        <v>1</v>
+      </c>
+      <c r="P44" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" ht="17.25" thickBot="1">
       <c r="A45" s="6">
         <v>39</v>
       </c>
@@ -2705,17 +2832,20 @@
       <c r="M45" s="5">
         <v>1</v>
       </c>
-      <c r="N45" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="O45" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="P45" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" ht="17.25" thickBot="1">
+      <c r="N45" s="5">
+        <v>1</v>
+      </c>
+      <c r="O45" s="5">
+        <v>1</v>
+      </c>
+      <c r="P45" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" ht="17.25" thickBot="1">
       <c r="A46" s="6">
         <v>40</v>
       </c>
@@ -2755,17 +2885,20 @@
       <c r="M46" s="5">
         <v>1</v>
       </c>
-      <c r="N46" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="O46" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="P46" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" ht="17.25" thickBot="1">
+      <c r="N46" s="5">
+        <v>1</v>
+      </c>
+      <c r="O46" s="5">
+        <v>1</v>
+      </c>
+      <c r="P46" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" ht="17.25" thickBot="1">
       <c r="A47" s="6">
         <v>41</v>
       </c>
@@ -2805,17 +2938,20 @@
       <c r="M47" s="5">
         <v>1</v>
       </c>
-      <c r="N47" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="O47" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="P47" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" ht="17.25" thickBot="1">
+      <c r="N47" s="5">
+        <v>1</v>
+      </c>
+      <c r="O47" s="5">
+        <v>1</v>
+      </c>
+      <c r="P47" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" ht="17.25" thickBot="1">
       <c r="A48" s="6">
         <v>42</v>
       </c>
@@ -2855,17 +2991,20 @@
       <c r="M48" s="5">
         <v>1</v>
       </c>
-      <c r="N48" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="O48" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="P48" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" ht="17.25" thickBot="1">
+      <c r="N48" s="5">
+        <v>0</v>
+      </c>
+      <c r="O48" s="5">
+        <v>0</v>
+      </c>
+      <c r="P48" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" ht="17.25" thickBot="1">
       <c r="A49" s="6">
         <v>43</v>
       </c>
@@ -2905,17 +3044,20 @@
       <c r="M49" s="5">
         <v>1</v>
       </c>
-      <c r="N49" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="O49" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="P49" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" ht="17.25" thickBot="1">
+      <c r="N49" s="5">
+        <v>1</v>
+      </c>
+      <c r="O49" s="5">
+        <v>1</v>
+      </c>
+      <c r="P49" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" ht="17.25" thickBot="1">
       <c r="A50" s="6">
         <v>44</v>
       </c>
@@ -2955,17 +3097,20 @@
       <c r="M50" s="5">
         <v>1</v>
       </c>
-      <c r="N50" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="O50" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="P50" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" ht="17.25" thickBot="1">
+      <c r="N50" s="5">
+        <v>1</v>
+      </c>
+      <c r="O50" s="5">
+        <v>1</v>
+      </c>
+      <c r="P50" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" ht="17.25" thickBot="1">
       <c r="A51" s="6">
         <v>45</v>
       </c>
@@ -3005,17 +3150,20 @@
       <c r="M51" s="5">
         <v>1</v>
       </c>
-      <c r="N51" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="O51" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="P51" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" ht="17.25" thickBot="1">
+      <c r="N51" s="5">
+        <v>1</v>
+      </c>
+      <c r="O51" s="5">
+        <v>1</v>
+      </c>
+      <c r="P51" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" ht="17.25" thickBot="1">
       <c r="A52" s="6">
         <v>46</v>
       </c>
@@ -3055,17 +3203,20 @@
       <c r="M52" s="5">
         <v>1</v>
       </c>
-      <c r="N52" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="O52" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="P52" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" ht="17.25" thickBot="1">
+      <c r="N52" s="5">
+        <v>1</v>
+      </c>
+      <c r="O52" s="5">
+        <v>1</v>
+      </c>
+      <c r="P52" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" ht="17.25" thickBot="1">
       <c r="A53" s="6">
         <v>47</v>
       </c>
@@ -3105,17 +3256,20 @@
       <c r="M53" s="5">
         <v>0</v>
       </c>
-      <c r="N53" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="O53" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="P53" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" ht="17.25" thickBot="1">
+      <c r="N53" s="5">
+        <v>0</v>
+      </c>
+      <c r="O53" s="5">
+        <v>0</v>
+      </c>
+      <c r="P53" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" ht="17.25" thickBot="1">
       <c r="A54" s="6">
         <v>48</v>
       </c>
@@ -3155,14 +3309,17 @@
       <c r="M54" s="5">
         <v>1</v>
       </c>
-      <c r="N54" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="O54" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="P54" s="5" t="s">
-        <v>3</v>
+      <c r="N54" s="5">
+        <v>1</v>
+      </c>
+      <c r="O54" s="5">
+        <v>1</v>
+      </c>
+      <c r="P54" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/SE-CPE4A-19-20-ATTENDANCE.xlsx
+++ b/SE-CPE4A-19-20-ATTENDANCE.xlsx
@@ -206,7 +206,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,8 +260,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -286,8 +299,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -310,11 +329,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -355,7 +383,22 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -642,10 +685,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q54"/>
+  <dimension ref="A1:S54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -660,9 +703,10 @@
     <col min="13" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="60" customHeight="1">
+    <row r="1" spans="1:19" ht="60" customHeight="1">
       <c r="A1" s="11" t="s">
         <v>52</v>
       </c>
@@ -682,7 +726,7 @@
       <c r="O1" s="11"/>
       <c r="P1" s="11"/>
     </row>
-    <row r="2" spans="1:17" ht="58.5" customHeight="1">
+    <row r="2" spans="1:19" ht="58.5" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>53</v>
       </c>
@@ -702,7 +746,7 @@
       <c r="O2" s="12"/>
       <c r="P2" s="12"/>
     </row>
-    <row r="3" spans="1:17" ht="15" customHeight="1">
+    <row r="3" spans="1:19" ht="15" customHeight="1">
       <c r="A3" s="13" t="s">
         <v>54</v>
       </c>
@@ -722,10 +766,10 @@
       <c r="O3" s="13"/>
       <c r="P3" s="13"/>
     </row>
-    <row r="5" spans="1:17" ht="23.25" customHeight="1" thickBot="1">
+    <row r="5" spans="1:19" ht="23.25" customHeight="1" thickBot="1">
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:17" ht="23.25" customHeight="1" thickBot="1">
+    <row r="6" spans="1:19" ht="23.25" customHeight="1" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
@@ -774,11 +818,17 @@
       <c r="P6" s="4">
         <v>43888</v>
       </c>
-      <c r="Q6" s="14">
+      <c r="Q6" s="18">
         <v>43894</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
+      <c r="R6" s="19">
+        <v>43895</v>
+      </c>
+      <c r="S6" s="19">
+        <v>43901</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" customHeight="1" thickBot="1">
       <c r="A7" s="6">
         <v>1</v>
       </c>
@@ -827,11 +877,17 @@
       <c r="P7" s="5">
         <v>1</v>
       </c>
-      <c r="Q7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
+      <c r="Q7" s="14">
+        <v>1</v>
+      </c>
+      <c r="R7" s="15">
+        <v>1</v>
+      </c>
+      <c r="S7" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15.75" customHeight="1" thickBot="1">
       <c r="A8" s="6">
         <v>2</v>
       </c>
@@ -880,11 +936,17 @@
       <c r="P8" s="5">
         <v>1</v>
       </c>
-      <c r="Q8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
+      <c r="Q8" s="14">
+        <v>1</v>
+      </c>
+      <c r="R8" s="15">
+        <v>1</v>
+      </c>
+      <c r="S8" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="15.75" customHeight="1" thickBot="1">
       <c r="A9" s="6">
         <v>3</v>
       </c>
@@ -933,11 +995,17 @@
       <c r="P9" s="5">
         <v>1</v>
       </c>
-      <c r="Q9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
+      <c r="Q9" s="14">
+        <v>1</v>
+      </c>
+      <c r="R9" s="15">
+        <v>1</v>
+      </c>
+      <c r="S9" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" customHeight="1" thickBot="1">
       <c r="A10" s="6">
         <v>4</v>
       </c>
@@ -986,11 +1054,17 @@
       <c r="P10" s="5">
         <v>1</v>
       </c>
-      <c r="Q10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
+      <c r="Q10" s="14">
+        <v>1</v>
+      </c>
+      <c r="R10" s="17">
+        <v>1</v>
+      </c>
+      <c r="S10" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15.75" customHeight="1" thickBot="1">
       <c r="A11" s="6">
         <v>5</v>
       </c>
@@ -1039,11 +1113,17 @@
       <c r="P11" s="5">
         <v>1</v>
       </c>
-      <c r="Q11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
+      <c r="Q11" s="14">
+        <v>1</v>
+      </c>
+      <c r="R11" s="17">
+        <v>1</v>
+      </c>
+      <c r="S11" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="15.75" customHeight="1" thickBot="1">
       <c r="A12" s="6">
         <v>6</v>
       </c>
@@ -1092,11 +1172,17 @@
       <c r="P12" s="5">
         <v>1</v>
       </c>
-      <c r="Q12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="17.25" customHeight="1" thickBot="1">
+      <c r="Q12" s="14">
+        <v>1</v>
+      </c>
+      <c r="R12" s="17">
+        <v>1</v>
+      </c>
+      <c r="S12" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
       <c r="A13" s="6">
         <v>7</v>
       </c>
@@ -1145,11 +1231,17 @@
       <c r="P13" s="5">
         <v>0</v>
       </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
+      <c r="Q13" s="14">
+        <v>0</v>
+      </c>
+      <c r="R13" s="17">
+        <v>1</v>
+      </c>
+      <c r="S13" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="15.75" customHeight="1" thickBot="1">
       <c r="A14" s="6">
         <v>8</v>
       </c>
@@ -1198,11 +1290,17 @@
       <c r="P14" s="5">
         <v>1</v>
       </c>
-      <c r="Q14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
+      <c r="Q14" s="14">
+        <v>1</v>
+      </c>
+      <c r="R14" s="16">
+        <v>1</v>
+      </c>
+      <c r="S14" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="15.75" customHeight="1" thickBot="1">
       <c r="A15" s="6">
         <v>9</v>
       </c>
@@ -1251,11 +1349,17 @@
       <c r="P15" s="5">
         <v>1</v>
       </c>
-      <c r="Q15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
+      <c r="Q15" s="14">
+        <v>1</v>
+      </c>
+      <c r="R15" s="16">
+        <v>0</v>
+      </c>
+      <c r="S15" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="15.75" customHeight="1" thickBot="1">
       <c r="A16" s="6">
         <v>10</v>
       </c>
@@ -1304,11 +1408,17 @@
       <c r="P16" s="5">
         <v>1</v>
       </c>
-      <c r="Q16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
+      <c r="Q16" s="14">
+        <v>1</v>
+      </c>
+      <c r="R16" s="16">
+        <v>1</v>
+      </c>
+      <c r="S16" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="15.75" customHeight="1" thickBot="1">
       <c r="A17" s="6">
         <v>11</v>
       </c>
@@ -1357,11 +1467,17 @@
       <c r="P17" s="5">
         <v>0</v>
       </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
+      <c r="Q17" s="14">
+        <v>0</v>
+      </c>
+      <c r="R17" s="16">
+        <v>1</v>
+      </c>
+      <c r="S17" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="15.75" customHeight="1" thickBot="1">
       <c r="A18" s="6">
         <v>12</v>
       </c>
@@ -1410,11 +1526,17 @@
       <c r="P18" s="5">
         <v>0</v>
       </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="17.25" thickBot="1">
+      <c r="Q18" s="14">
+        <v>0</v>
+      </c>
+      <c r="R18" s="16">
+        <v>1</v>
+      </c>
+      <c r="S18" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="17.25" thickBot="1">
       <c r="A19" s="6">
         <v>13</v>
       </c>
@@ -1463,11 +1585,17 @@
       <c r="P19" s="5">
         <v>1</v>
       </c>
-      <c r="Q19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
+      <c r="Q19" s="14">
+        <v>1</v>
+      </c>
+      <c r="R19" s="16">
+        <v>1</v>
+      </c>
+      <c r="S19" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="15.75" customHeight="1" thickBot="1">
       <c r="A20" s="6">
         <v>14</v>
       </c>
@@ -1516,11 +1644,17 @@
       <c r="P20" s="5">
         <v>1</v>
       </c>
-      <c r="Q20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
+      <c r="Q20" s="14">
+        <v>1</v>
+      </c>
+      <c r="R20" s="16">
+        <v>1</v>
+      </c>
+      <c r="S20" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="15.75" customHeight="1" thickBot="1">
       <c r="A21" s="6">
         <v>15</v>
       </c>
@@ -1569,11 +1703,17 @@
       <c r="P21" s="5">
         <v>1</v>
       </c>
-      <c r="Q21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
+      <c r="Q21" s="14">
+        <v>1</v>
+      </c>
+      <c r="R21" s="16">
+        <v>1</v>
+      </c>
+      <c r="S21" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="15.75" customHeight="1" thickBot="1">
       <c r="A22" s="6">
         <v>16</v>
       </c>
@@ -1622,11 +1762,17 @@
       <c r="P22" s="5">
         <v>1</v>
       </c>
-      <c r="Q22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
+      <c r="Q22" s="14">
+        <v>1</v>
+      </c>
+      <c r="R22" s="16">
+        <v>1</v>
+      </c>
+      <c r="S22" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="15.75" customHeight="1" thickBot="1">
       <c r="A23" s="6">
         <v>17</v>
       </c>
@@ -1675,11 +1821,17 @@
       <c r="P23" s="5">
         <v>1</v>
       </c>
-      <c r="Q23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
+      <c r="Q23" s="14">
+        <v>1</v>
+      </c>
+      <c r="R23" s="16">
+        <v>1</v>
+      </c>
+      <c r="S23" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="15.75" customHeight="1" thickBot="1">
       <c r="A24" s="6">
         <v>18</v>
       </c>
@@ -1728,11 +1880,17 @@
       <c r="P24" s="5">
         <v>0</v>
       </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
+      <c r="Q24" s="14">
+        <v>0</v>
+      </c>
+      <c r="R24" s="16">
+        <v>1</v>
+      </c>
+      <c r="S24" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="15.75" customHeight="1" thickBot="1">
       <c r="A25" s="6">
         <v>19</v>
       </c>
@@ -1781,11 +1939,17 @@
       <c r="P25" s="5">
         <v>1</v>
       </c>
-      <c r="Q25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
+      <c r="Q25" s="14">
+        <v>1</v>
+      </c>
+      <c r="R25" s="16">
+        <v>1</v>
+      </c>
+      <c r="S25" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="15.75" customHeight="1" thickBot="1">
       <c r="A26" s="6">
         <v>20</v>
       </c>
@@ -1834,11 +1998,17 @@
       <c r="P26" s="5">
         <v>1</v>
       </c>
-      <c r="Q26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
+      <c r="Q26" s="14">
+        <v>1</v>
+      </c>
+      <c r="R26" s="16">
+        <v>1</v>
+      </c>
+      <c r="S26" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="15.75" customHeight="1" thickBot="1">
       <c r="A27" s="6">
         <v>21</v>
       </c>
@@ -1887,11 +2057,17 @@
       <c r="P27" s="5">
         <v>0</v>
       </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
+      <c r="Q27" s="14">
+        <v>0</v>
+      </c>
+      <c r="R27" s="16">
+        <v>0</v>
+      </c>
+      <c r="S27" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="15.75" customHeight="1" thickBot="1">
       <c r="A28" s="6">
         <v>22</v>
       </c>
@@ -1940,11 +2116,17 @@
       <c r="P28" s="5">
         <v>1</v>
       </c>
-      <c r="Q28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
+      <c r="Q28" s="14">
+        <v>1</v>
+      </c>
+      <c r="R28" s="16">
+        <v>1</v>
+      </c>
+      <c r="S28" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="15.75" customHeight="1" thickBot="1">
       <c r="A29" s="6">
         <v>23</v>
       </c>
@@ -1993,11 +2175,17 @@
       <c r="P29" s="5">
         <v>1</v>
       </c>
-      <c r="Q29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
+      <c r="Q29" s="14">
+        <v>1</v>
+      </c>
+      <c r="R29" s="16">
+        <v>1</v>
+      </c>
+      <c r="S29" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="15.75" customHeight="1" thickBot="1">
       <c r="A30" s="6">
         <v>24</v>
       </c>
@@ -2046,11 +2234,17 @@
       <c r="P30" s="5">
         <v>1</v>
       </c>
-      <c r="Q30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
+      <c r="Q30" s="14">
+        <v>1</v>
+      </c>
+      <c r="R30" s="16">
+        <v>1</v>
+      </c>
+      <c r="S30" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="15.75" customHeight="1" thickBot="1">
       <c r="A31" s="6">
         <v>25</v>
       </c>
@@ -2099,11 +2293,17 @@
       <c r="P31" s="5">
         <v>1</v>
       </c>
-      <c r="Q31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
+      <c r="Q31" s="14">
+        <v>1</v>
+      </c>
+      <c r="R31" s="16">
+        <v>1</v>
+      </c>
+      <c r="S31" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="15.75" customHeight="1" thickBot="1">
       <c r="A32" s="6">
         <v>26</v>
       </c>
@@ -2152,11 +2352,17 @@
       <c r="P32" s="5">
         <v>1</v>
       </c>
-      <c r="Q32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
+      <c r="Q32" s="14">
+        <v>1</v>
+      </c>
+      <c r="R32" s="16">
+        <v>1</v>
+      </c>
+      <c r="S32" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="15.75" customHeight="1" thickBot="1">
       <c r="A33" s="6">
         <v>27</v>
       </c>
@@ -2205,11 +2411,17 @@
       <c r="P33" s="5">
         <v>1</v>
       </c>
-      <c r="Q33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
+      <c r="Q33" s="14">
+        <v>1</v>
+      </c>
+      <c r="R33" s="16">
+        <v>1</v>
+      </c>
+      <c r="S33" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="15.75" customHeight="1" thickBot="1">
       <c r="A34" s="6">
         <v>28</v>
       </c>
@@ -2258,11 +2470,17 @@
       <c r="P34" s="5">
         <v>1</v>
       </c>
-      <c r="Q34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" ht="17.25" thickBot="1">
+      <c r="Q34" s="14">
+        <v>1</v>
+      </c>
+      <c r="R34" s="16">
+        <v>1</v>
+      </c>
+      <c r="S34" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="17.25" thickBot="1">
       <c r="A35" s="6">
         <v>29</v>
       </c>
@@ -2311,11 +2529,17 @@
       <c r="P35" s="5">
         <v>1</v>
       </c>
-      <c r="Q35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" ht="17.25" thickBot="1">
+      <c r="Q35" s="14">
+        <v>1</v>
+      </c>
+      <c r="R35" s="16">
+        <v>1</v>
+      </c>
+      <c r="S35" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="17.25" thickBot="1">
       <c r="A36" s="6">
         <v>30</v>
       </c>
@@ -2364,11 +2588,17 @@
       <c r="P36" s="5">
         <v>1</v>
       </c>
-      <c r="Q36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" ht="17.25" thickBot="1">
+      <c r="Q36" s="14">
+        <v>1</v>
+      </c>
+      <c r="R36" s="16">
+        <v>1</v>
+      </c>
+      <c r="S36" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" ht="17.25" thickBot="1">
       <c r="A37" s="6">
         <v>31</v>
       </c>
@@ -2417,11 +2647,17 @@
       <c r="P37" s="5">
         <v>1</v>
       </c>
-      <c r="Q37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" ht="17.25" thickBot="1">
+      <c r="Q37" s="14">
+        <v>1</v>
+      </c>
+      <c r="R37" s="16">
+        <v>1</v>
+      </c>
+      <c r="S37" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="17.25" thickBot="1">
       <c r="A38" s="6">
         <v>32</v>
       </c>
@@ -2470,11 +2706,17 @@
       <c r="P38" s="5">
         <v>1</v>
       </c>
-      <c r="Q38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" ht="16.5" customHeight="1" thickBot="1">
+      <c r="Q38" s="14">
+        <v>1</v>
+      </c>
+      <c r="R38" s="16">
+        <v>1</v>
+      </c>
+      <c r="S38" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="16.5" customHeight="1" thickBot="1">
       <c r="A39" s="6">
         <v>33</v>
       </c>
@@ -2523,11 +2765,17 @@
       <c r="P39" s="5">
         <v>1</v>
       </c>
-      <c r="Q39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" ht="17.25" thickBot="1">
+      <c r="Q39" s="14">
+        <v>1</v>
+      </c>
+      <c r="R39" s="16">
+        <v>1</v>
+      </c>
+      <c r="S39" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="17.25" thickBot="1">
       <c r="A40" s="6">
         <v>34</v>
       </c>
@@ -2576,11 +2824,17 @@
       <c r="P40" s="5">
         <v>1</v>
       </c>
-      <c r="Q40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" ht="17.25" thickBot="1">
+      <c r="Q40" s="14">
+        <v>1</v>
+      </c>
+      <c r="R40" s="16">
+        <v>1</v>
+      </c>
+      <c r="S40" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" ht="17.25" thickBot="1">
       <c r="A41" s="6">
         <v>35</v>
       </c>
@@ -2629,11 +2883,17 @@
       <c r="P41" s="5">
         <v>1</v>
       </c>
-      <c r="Q41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" ht="17.25" thickBot="1">
+      <c r="Q41" s="14">
+        <v>1</v>
+      </c>
+      <c r="R41" s="16">
+        <v>1</v>
+      </c>
+      <c r="S41" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" ht="17.25" thickBot="1">
       <c r="A42" s="6">
         <v>36</v>
       </c>
@@ -2682,11 +2942,17 @@
       <c r="P42" s="5">
         <v>1</v>
       </c>
-      <c r="Q42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" ht="17.25" thickBot="1">
+      <c r="Q42" s="14">
+        <v>1</v>
+      </c>
+      <c r="R42" s="16">
+        <v>1</v>
+      </c>
+      <c r="S42" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" ht="17.25" thickBot="1">
       <c r="A43" s="6">
         <v>37</v>
       </c>
@@ -2735,11 +3001,17 @@
       <c r="P43" s="5">
         <v>1</v>
       </c>
-      <c r="Q43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" ht="17.25" thickBot="1">
+      <c r="Q43" s="14">
+        <v>1</v>
+      </c>
+      <c r="R43" s="16">
+        <v>1</v>
+      </c>
+      <c r="S43" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" ht="17.25" thickBot="1">
       <c r="A44" s="6">
         <v>38</v>
       </c>
@@ -2788,11 +3060,17 @@
       <c r="P44" s="5">
         <v>0</v>
       </c>
-      <c r="Q44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" ht="17.25" thickBot="1">
+      <c r="Q44" s="14">
+        <v>0</v>
+      </c>
+      <c r="R44" s="16">
+        <v>1</v>
+      </c>
+      <c r="S44" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" ht="17.25" thickBot="1">
       <c r="A45" s="6">
         <v>39</v>
       </c>
@@ -2841,11 +3119,17 @@
       <c r="P45" s="5">
         <v>1</v>
       </c>
-      <c r="Q45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" ht="17.25" thickBot="1">
+      <c r="Q45" s="14">
+        <v>1</v>
+      </c>
+      <c r="R45" s="16">
+        <v>0</v>
+      </c>
+      <c r="S45" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" ht="17.25" thickBot="1">
       <c r="A46" s="6">
         <v>40</v>
       </c>
@@ -2894,11 +3178,17 @@
       <c r="P46" s="5">
         <v>1</v>
       </c>
-      <c r="Q46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" ht="17.25" thickBot="1">
+      <c r="Q46" s="14">
+        <v>1</v>
+      </c>
+      <c r="R46" s="16">
+        <v>1</v>
+      </c>
+      <c r="S46" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" ht="17.25" thickBot="1">
       <c r="A47" s="6">
         <v>41</v>
       </c>
@@ -2947,11 +3237,17 @@
       <c r="P47" s="5">
         <v>1</v>
       </c>
-      <c r="Q47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" ht="17.25" thickBot="1">
+      <c r="Q47" s="14">
+        <v>1</v>
+      </c>
+      <c r="R47" s="16">
+        <v>1</v>
+      </c>
+      <c r="S47" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" ht="17.25" thickBot="1">
       <c r="A48" s="6">
         <v>42</v>
       </c>
@@ -3000,11 +3296,17 @@
       <c r="P48" s="5">
         <v>1</v>
       </c>
-      <c r="Q48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" ht="17.25" thickBot="1">
+      <c r="Q48" s="14">
+        <v>1</v>
+      </c>
+      <c r="R48" s="16">
+        <v>1</v>
+      </c>
+      <c r="S48" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" ht="17.25" thickBot="1">
       <c r="A49" s="6">
         <v>43</v>
       </c>
@@ -3053,11 +3355,17 @@
       <c r="P49" s="5">
         <v>1</v>
       </c>
-      <c r="Q49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" ht="17.25" thickBot="1">
+      <c r="Q49" s="14">
+        <v>1</v>
+      </c>
+      <c r="R49" s="16">
+        <v>1</v>
+      </c>
+      <c r="S49" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" ht="17.25" thickBot="1">
       <c r="A50" s="6">
         <v>44</v>
       </c>
@@ -3106,11 +3414,17 @@
       <c r="P50" s="5">
         <v>1</v>
       </c>
-      <c r="Q50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" ht="17.25" thickBot="1">
+      <c r="Q50" s="14">
+        <v>1</v>
+      </c>
+      <c r="R50" s="16">
+        <v>1</v>
+      </c>
+      <c r="S50" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" ht="17.25" thickBot="1">
       <c r="A51" s="6">
         <v>45</v>
       </c>
@@ -3159,11 +3473,17 @@
       <c r="P51" s="5">
         <v>1</v>
       </c>
-      <c r="Q51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" ht="17.25" thickBot="1">
+      <c r="Q51" s="14">
+        <v>1</v>
+      </c>
+      <c r="R51" s="16">
+        <v>1</v>
+      </c>
+      <c r="S51" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" ht="17.25" thickBot="1">
       <c r="A52" s="6">
         <v>46</v>
       </c>
@@ -3212,11 +3532,17 @@
       <c r="P52" s="5">
         <v>1</v>
       </c>
-      <c r="Q52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" ht="17.25" thickBot="1">
+      <c r="Q52" s="14">
+        <v>1</v>
+      </c>
+      <c r="R52" s="16">
+        <v>1</v>
+      </c>
+      <c r="S52" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" ht="17.25" thickBot="1">
       <c r="A53" s="6">
         <v>47</v>
       </c>
@@ -3265,11 +3591,17 @@
       <c r="P53" s="5">
         <v>1</v>
       </c>
-      <c r="Q53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" ht="17.25" thickBot="1">
+      <c r="Q53" s="14">
+        <v>1</v>
+      </c>
+      <c r="R53" s="16">
+        <v>1</v>
+      </c>
+      <c r="S53" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" ht="17.25" thickBot="1">
       <c r="A54" s="6">
         <v>48</v>
       </c>
@@ -3318,7 +3650,13 @@
       <c r="P54" s="5">
         <v>1</v>
       </c>
-      <c r="Q54">
+      <c r="Q54" s="14">
+        <v>1</v>
+      </c>
+      <c r="R54" s="16">
+        <v>1</v>
+      </c>
+      <c r="S54" s="16">
         <v>1</v>
       </c>
     </row>

--- a/SE-CPE4A-19-20-ATTENDANCE.xlsx
+++ b/SE-CPE4A-19-20-ATTENDANCE.xlsx
@@ -274,7 +274,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -296,12 +296,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,21 +377,21 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -688,7 +682,7 @@
   <dimension ref="A1:S54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -818,13 +812,13 @@
       <c r="P6" s="4">
         <v>43888</v>
       </c>
-      <c r="Q6" s="18">
+      <c r="Q6" s="14">
         <v>43894</v>
       </c>
-      <c r="R6" s="19">
+      <c r="R6" s="15">
         <v>43895</v>
       </c>
-      <c r="S6" s="19">
+      <c r="S6" s="15">
         <v>43901</v>
       </c>
     </row>
@@ -877,13 +871,13 @@
       <c r="P7" s="5">
         <v>1</v>
       </c>
-      <c r="Q7" s="14">
-        <v>1</v>
-      </c>
-      <c r="R7" s="15">
-        <v>1</v>
-      </c>
-      <c r="S7" s="16">
+      <c r="Q7" s="16">
+        <v>1</v>
+      </c>
+      <c r="R7" s="17">
+        <v>1</v>
+      </c>
+      <c r="S7" s="18">
         <v>1</v>
       </c>
     </row>
@@ -936,13 +930,13 @@
       <c r="P8" s="5">
         <v>1</v>
       </c>
-      <c r="Q8" s="14">
-        <v>1</v>
-      </c>
-      <c r="R8" s="15">
-        <v>1</v>
-      </c>
-      <c r="S8" s="16">
+      <c r="Q8" s="16">
+        <v>1</v>
+      </c>
+      <c r="R8" s="17">
+        <v>1</v>
+      </c>
+      <c r="S8" s="18">
         <v>1</v>
       </c>
     </row>
@@ -995,13 +989,13 @@
       <c r="P9" s="5">
         <v>1</v>
       </c>
-      <c r="Q9" s="14">
-        <v>1</v>
-      </c>
-      <c r="R9" s="15">
-        <v>1</v>
-      </c>
-      <c r="S9" s="16">
+      <c r="Q9" s="16">
+        <v>1</v>
+      </c>
+      <c r="R9" s="17">
+        <v>1</v>
+      </c>
+      <c r="S9" s="18">
         <v>1</v>
       </c>
     </row>
@@ -1054,13 +1048,13 @@
       <c r="P10" s="5">
         <v>1</v>
       </c>
-      <c r="Q10" s="14">
-        <v>1</v>
-      </c>
-      <c r="R10" s="17">
-        <v>1</v>
-      </c>
-      <c r="S10" s="16">
+      <c r="Q10" s="16">
+        <v>1</v>
+      </c>
+      <c r="R10" s="19">
+        <v>1</v>
+      </c>
+      <c r="S10" s="18">
         <v>1</v>
       </c>
     </row>
@@ -1113,13 +1107,13 @@
       <c r="P11" s="5">
         <v>1</v>
       </c>
-      <c r="Q11" s="14">
-        <v>1</v>
-      </c>
-      <c r="R11" s="17">
-        <v>1</v>
-      </c>
-      <c r="S11" s="16">
+      <c r="Q11" s="16">
+        <v>1</v>
+      </c>
+      <c r="R11" s="19">
+        <v>1</v>
+      </c>
+      <c r="S11" s="18">
         <v>1</v>
       </c>
     </row>
@@ -1172,13 +1166,13 @@
       <c r="P12" s="5">
         <v>1</v>
       </c>
-      <c r="Q12" s="14">
-        <v>1</v>
-      </c>
-      <c r="R12" s="17">
-        <v>1</v>
-      </c>
-      <c r="S12" s="16">
+      <c r="Q12" s="16">
+        <v>1</v>
+      </c>
+      <c r="R12" s="19">
+        <v>1</v>
+      </c>
+      <c r="S12" s="18">
         <v>1</v>
       </c>
     </row>
@@ -1231,13 +1225,13 @@
       <c r="P13" s="5">
         <v>0</v>
       </c>
-      <c r="Q13" s="14">
-        <v>0</v>
-      </c>
-      <c r="R13" s="17">
-        <v>1</v>
-      </c>
-      <c r="S13" s="16">
+      <c r="Q13" s="16">
+        <v>0</v>
+      </c>
+      <c r="R13" s="19">
+        <v>1</v>
+      </c>
+      <c r="S13" s="18">
         <v>1</v>
       </c>
     </row>
@@ -1290,13 +1284,13 @@
       <c r="P14" s="5">
         <v>1</v>
       </c>
-      <c r="Q14" s="14">
-        <v>1</v>
-      </c>
-      <c r="R14" s="16">
-        <v>1</v>
-      </c>
-      <c r="S14" s="16">
+      <c r="Q14" s="16">
+        <v>1</v>
+      </c>
+      <c r="R14" s="18">
+        <v>1</v>
+      </c>
+      <c r="S14" s="18">
         <v>1</v>
       </c>
     </row>
@@ -1349,13 +1343,13 @@
       <c r="P15" s="5">
         <v>1</v>
       </c>
-      <c r="Q15" s="14">
-        <v>1</v>
-      </c>
-      <c r="R15" s="16">
-        <v>0</v>
-      </c>
-      <c r="S15" s="16">
+      <c r="Q15" s="16">
+        <v>1</v>
+      </c>
+      <c r="R15" s="18">
+        <v>0</v>
+      </c>
+      <c r="S15" s="18">
         <v>0</v>
       </c>
     </row>
@@ -1408,13 +1402,13 @@
       <c r="P16" s="5">
         <v>1</v>
       </c>
-      <c r="Q16" s="14">
-        <v>1</v>
-      </c>
-      <c r="R16" s="16">
-        <v>1</v>
-      </c>
-      <c r="S16" s="16">
+      <c r="Q16" s="16">
+        <v>1</v>
+      </c>
+      <c r="R16" s="18">
+        <v>1</v>
+      </c>
+      <c r="S16" s="18">
         <v>1</v>
       </c>
     </row>
@@ -1467,13 +1461,13 @@
       <c r="P17" s="5">
         <v>0</v>
       </c>
-      <c r="Q17" s="14">
-        <v>0</v>
-      </c>
-      <c r="R17" s="16">
-        <v>1</v>
-      </c>
-      <c r="S17" s="16">
+      <c r="Q17" s="16">
+        <v>0</v>
+      </c>
+      <c r="R17" s="18">
+        <v>1</v>
+      </c>
+      <c r="S17" s="18">
         <v>1</v>
       </c>
     </row>
@@ -1526,13 +1520,13 @@
       <c r="P18" s="5">
         <v>0</v>
       </c>
-      <c r="Q18" s="14">
-        <v>0</v>
-      </c>
-      <c r="R18" s="16">
-        <v>1</v>
-      </c>
-      <c r="S18" s="16">
+      <c r="Q18" s="16">
+        <v>0</v>
+      </c>
+      <c r="R18" s="18">
+        <v>1</v>
+      </c>
+      <c r="S18" s="18">
         <v>1</v>
       </c>
     </row>
@@ -1585,13 +1579,13 @@
       <c r="P19" s="5">
         <v>1</v>
       </c>
-      <c r="Q19" s="14">
-        <v>1</v>
-      </c>
-      <c r="R19" s="16">
-        <v>1</v>
-      </c>
-      <c r="S19" s="16">
+      <c r="Q19" s="16">
+        <v>1</v>
+      </c>
+      <c r="R19" s="18">
+        <v>1</v>
+      </c>
+      <c r="S19" s="18">
         <v>1</v>
       </c>
     </row>
@@ -1644,13 +1638,13 @@
       <c r="P20" s="5">
         <v>1</v>
       </c>
-      <c r="Q20" s="14">
-        <v>1</v>
-      </c>
-      <c r="R20" s="16">
-        <v>1</v>
-      </c>
-      <c r="S20" s="16">
+      <c r="Q20" s="16">
+        <v>1</v>
+      </c>
+      <c r="R20" s="18">
+        <v>1</v>
+      </c>
+      <c r="S20" s="18">
         <v>1</v>
       </c>
     </row>
@@ -1703,13 +1697,13 @@
       <c r="P21" s="5">
         <v>1</v>
       </c>
-      <c r="Q21" s="14">
-        <v>1</v>
-      </c>
-      <c r="R21" s="16">
-        <v>1</v>
-      </c>
-      <c r="S21" s="16">
+      <c r="Q21" s="16">
+        <v>1</v>
+      </c>
+      <c r="R21" s="18">
+        <v>1</v>
+      </c>
+      <c r="S21" s="18">
         <v>1</v>
       </c>
     </row>
@@ -1762,13 +1756,13 @@
       <c r="P22" s="5">
         <v>1</v>
       </c>
-      <c r="Q22" s="14">
-        <v>1</v>
-      </c>
-      <c r="R22" s="16">
-        <v>1</v>
-      </c>
-      <c r="S22" s="16">
+      <c r="Q22" s="16">
+        <v>1</v>
+      </c>
+      <c r="R22" s="18">
+        <v>1</v>
+      </c>
+      <c r="S22" s="18">
         <v>1</v>
       </c>
     </row>
@@ -1821,13 +1815,13 @@
       <c r="P23" s="5">
         <v>1</v>
       </c>
-      <c r="Q23" s="14">
-        <v>1</v>
-      </c>
-      <c r="R23" s="16">
-        <v>1</v>
-      </c>
-      <c r="S23" s="16">
+      <c r="Q23" s="16">
+        <v>1</v>
+      </c>
+      <c r="R23" s="18">
+        <v>1</v>
+      </c>
+      <c r="S23" s="18">
         <v>1</v>
       </c>
     </row>
@@ -1880,13 +1874,13 @@
       <c r="P24" s="5">
         <v>0</v>
       </c>
-      <c r="Q24" s="14">
-        <v>0</v>
-      </c>
-      <c r="R24" s="16">
-        <v>1</v>
-      </c>
-      <c r="S24" s="16">
+      <c r="Q24" s="16">
+        <v>0</v>
+      </c>
+      <c r="R24" s="18">
+        <v>1</v>
+      </c>
+      <c r="S24" s="18">
         <v>1</v>
       </c>
     </row>
@@ -1939,13 +1933,13 @@
       <c r="P25" s="5">
         <v>1</v>
       </c>
-      <c r="Q25" s="14">
-        <v>1</v>
-      </c>
-      <c r="R25" s="16">
-        <v>1</v>
-      </c>
-      <c r="S25" s="16">
+      <c r="Q25" s="16">
+        <v>1</v>
+      </c>
+      <c r="R25" s="18">
+        <v>1</v>
+      </c>
+      <c r="S25" s="18">
         <v>1</v>
       </c>
     </row>
@@ -1998,13 +1992,13 @@
       <c r="P26" s="5">
         <v>1</v>
       </c>
-      <c r="Q26" s="14">
-        <v>1</v>
-      </c>
-      <c r="R26" s="16">
-        <v>1</v>
-      </c>
-      <c r="S26" s="16">
+      <c r="Q26" s="16">
+        <v>1</v>
+      </c>
+      <c r="R26" s="18">
+        <v>1</v>
+      </c>
+      <c r="S26" s="18">
         <v>1</v>
       </c>
     </row>
@@ -2057,13 +2051,13 @@
       <c r="P27" s="5">
         <v>0</v>
       </c>
-      <c r="Q27" s="14">
-        <v>0</v>
-      </c>
-      <c r="R27" s="16">
-        <v>0</v>
-      </c>
-      <c r="S27" s="16">
+      <c r="Q27" s="16">
+        <v>0</v>
+      </c>
+      <c r="R27" s="18">
+        <v>0</v>
+      </c>
+      <c r="S27" s="18">
         <v>0</v>
       </c>
     </row>
@@ -2116,13 +2110,13 @@
       <c r="P28" s="5">
         <v>1</v>
       </c>
-      <c r="Q28" s="14">
-        <v>1</v>
-      </c>
-      <c r="R28" s="16">
-        <v>1</v>
-      </c>
-      <c r="S28" s="16">
+      <c r="Q28" s="16">
+        <v>1</v>
+      </c>
+      <c r="R28" s="18">
+        <v>1</v>
+      </c>
+      <c r="S28" s="18">
         <v>1</v>
       </c>
     </row>
@@ -2175,13 +2169,13 @@
       <c r="P29" s="5">
         <v>1</v>
       </c>
-      <c r="Q29" s="14">
-        <v>1</v>
-      </c>
-      <c r="R29" s="16">
-        <v>1</v>
-      </c>
-      <c r="S29" s="16">
+      <c r="Q29" s="16">
+        <v>1</v>
+      </c>
+      <c r="R29" s="18">
+        <v>1</v>
+      </c>
+      <c r="S29" s="18">
         <v>1</v>
       </c>
     </row>
@@ -2234,13 +2228,13 @@
       <c r="P30" s="5">
         <v>1</v>
       </c>
-      <c r="Q30" s="14">
-        <v>1</v>
-      </c>
-      <c r="R30" s="16">
-        <v>1</v>
-      </c>
-      <c r="S30" s="16">
+      <c r="Q30" s="16">
+        <v>1</v>
+      </c>
+      <c r="R30" s="18">
+        <v>1</v>
+      </c>
+      <c r="S30" s="18">
         <v>1</v>
       </c>
     </row>
@@ -2293,13 +2287,13 @@
       <c r="P31" s="5">
         <v>1</v>
       </c>
-      <c r="Q31" s="14">
-        <v>1</v>
-      </c>
-      <c r="R31" s="16">
-        <v>1</v>
-      </c>
-      <c r="S31" s="16">
+      <c r="Q31" s="16">
+        <v>1</v>
+      </c>
+      <c r="R31" s="18">
+        <v>1</v>
+      </c>
+      <c r="S31" s="18">
         <v>1</v>
       </c>
     </row>
@@ -2352,13 +2346,13 @@
       <c r="P32" s="5">
         <v>1</v>
       </c>
-      <c r="Q32" s="14">
-        <v>1</v>
-      </c>
-      <c r="R32" s="16">
-        <v>1</v>
-      </c>
-      <c r="S32" s="16">
+      <c r="Q32" s="16">
+        <v>1</v>
+      </c>
+      <c r="R32" s="18">
+        <v>1</v>
+      </c>
+      <c r="S32" s="18">
         <v>1</v>
       </c>
     </row>
@@ -2411,13 +2405,13 @@
       <c r="P33" s="5">
         <v>1</v>
       </c>
-      <c r="Q33" s="14">
-        <v>1</v>
-      </c>
-      <c r="R33" s="16">
-        <v>1</v>
-      </c>
-      <c r="S33" s="16">
+      <c r="Q33" s="16">
+        <v>1</v>
+      </c>
+      <c r="R33" s="18">
+        <v>1</v>
+      </c>
+      <c r="S33" s="18">
         <v>1</v>
       </c>
     </row>
@@ -2470,13 +2464,13 @@
       <c r="P34" s="5">
         <v>1</v>
       </c>
-      <c r="Q34" s="14">
-        <v>1</v>
-      </c>
-      <c r="R34" s="16">
-        <v>1</v>
-      </c>
-      <c r="S34" s="16">
+      <c r="Q34" s="16">
+        <v>1</v>
+      </c>
+      <c r="R34" s="18">
+        <v>1</v>
+      </c>
+      <c r="S34" s="18">
         <v>1</v>
       </c>
     </row>
@@ -2529,13 +2523,13 @@
       <c r="P35" s="5">
         <v>1</v>
       </c>
-      <c r="Q35" s="14">
-        <v>1</v>
-      </c>
-      <c r="R35" s="16">
-        <v>1</v>
-      </c>
-      <c r="S35" s="16">
+      <c r="Q35" s="16">
+        <v>1</v>
+      </c>
+      <c r="R35" s="18">
+        <v>1</v>
+      </c>
+      <c r="S35" s="18">
         <v>1</v>
       </c>
     </row>
@@ -2588,13 +2582,13 @@
       <c r="P36" s="5">
         <v>1</v>
       </c>
-      <c r="Q36" s="14">
-        <v>1</v>
-      </c>
-      <c r="R36" s="16">
-        <v>1</v>
-      </c>
-      <c r="S36" s="16">
+      <c r="Q36" s="16">
+        <v>1</v>
+      </c>
+      <c r="R36" s="18">
+        <v>1</v>
+      </c>
+      <c r="S36" s="18">
         <v>1</v>
       </c>
     </row>
@@ -2647,13 +2641,13 @@
       <c r="P37" s="5">
         <v>1</v>
       </c>
-      <c r="Q37" s="14">
-        <v>1</v>
-      </c>
-      <c r="R37" s="16">
-        <v>1</v>
-      </c>
-      <c r="S37" s="16">
+      <c r="Q37" s="16">
+        <v>1</v>
+      </c>
+      <c r="R37" s="18">
+        <v>1</v>
+      </c>
+      <c r="S37" s="18">
         <v>1</v>
       </c>
     </row>
@@ -2706,13 +2700,13 @@
       <c r="P38" s="5">
         <v>1</v>
       </c>
-      <c r="Q38" s="14">
-        <v>1</v>
-      </c>
-      <c r="R38" s="16">
-        <v>1</v>
-      </c>
-      <c r="S38" s="16">
+      <c r="Q38" s="16">
+        <v>1</v>
+      </c>
+      <c r="R38" s="18">
+        <v>1</v>
+      </c>
+      <c r="S38" s="18">
         <v>1</v>
       </c>
     </row>
@@ -2765,13 +2759,13 @@
       <c r="P39" s="5">
         <v>1</v>
       </c>
-      <c r="Q39" s="14">
-        <v>1</v>
-      </c>
-      <c r="R39" s="16">
-        <v>1</v>
-      </c>
-      <c r="S39" s="16">
+      <c r="Q39" s="16">
+        <v>1</v>
+      </c>
+      <c r="R39" s="18">
+        <v>1</v>
+      </c>
+      <c r="S39" s="18">
         <v>1</v>
       </c>
     </row>
@@ -2824,13 +2818,13 @@
       <c r="P40" s="5">
         <v>1</v>
       </c>
-      <c r="Q40" s="14">
-        <v>1</v>
-      </c>
-      <c r="R40" s="16">
-        <v>1</v>
-      </c>
-      <c r="S40" s="16">
+      <c r="Q40" s="16">
+        <v>1</v>
+      </c>
+      <c r="R40" s="18">
+        <v>1</v>
+      </c>
+      <c r="S40" s="18">
         <v>1</v>
       </c>
     </row>
@@ -2883,13 +2877,13 @@
       <c r="P41" s="5">
         <v>1</v>
       </c>
-      <c r="Q41" s="14">
-        <v>1</v>
-      </c>
-      <c r="R41" s="16">
-        <v>1</v>
-      </c>
-      <c r="S41" s="16">
+      <c r="Q41" s="16">
+        <v>1</v>
+      </c>
+      <c r="R41" s="18">
+        <v>1</v>
+      </c>
+      <c r="S41" s="18">
         <v>1</v>
       </c>
     </row>
@@ -2942,13 +2936,13 @@
       <c r="P42" s="5">
         <v>1</v>
       </c>
-      <c r="Q42" s="14">
-        <v>1</v>
-      </c>
-      <c r="R42" s="16">
-        <v>1</v>
-      </c>
-      <c r="S42" s="16">
+      <c r="Q42" s="16">
+        <v>1</v>
+      </c>
+      <c r="R42" s="18">
+        <v>1</v>
+      </c>
+      <c r="S42" s="18">
         <v>1</v>
       </c>
     </row>
@@ -3001,13 +2995,13 @@
       <c r="P43" s="5">
         <v>1</v>
       </c>
-      <c r="Q43" s="14">
-        <v>1</v>
-      </c>
-      <c r="R43" s="16">
-        <v>1</v>
-      </c>
-      <c r="S43" s="16">
+      <c r="Q43" s="16">
+        <v>1</v>
+      </c>
+      <c r="R43" s="18">
+        <v>1</v>
+      </c>
+      <c r="S43" s="18">
         <v>1</v>
       </c>
     </row>
@@ -3060,13 +3054,13 @@
       <c r="P44" s="5">
         <v>0</v>
       </c>
-      <c r="Q44" s="14">
-        <v>0</v>
-      </c>
-      <c r="R44" s="16">
-        <v>1</v>
-      </c>
-      <c r="S44" s="16">
+      <c r="Q44" s="16">
+        <v>0</v>
+      </c>
+      <c r="R44" s="18">
+        <v>1</v>
+      </c>
+      <c r="S44" s="18">
         <v>1</v>
       </c>
     </row>
@@ -3119,13 +3113,13 @@
       <c r="P45" s="5">
         <v>1</v>
       </c>
-      <c r="Q45" s="14">
-        <v>1</v>
-      </c>
-      <c r="R45" s="16">
-        <v>0</v>
-      </c>
-      <c r="S45" s="16">
+      <c r="Q45" s="16">
+        <v>1</v>
+      </c>
+      <c r="R45" s="18">
+        <v>0</v>
+      </c>
+      <c r="S45" s="18">
         <v>0</v>
       </c>
     </row>
@@ -3178,13 +3172,13 @@
       <c r="P46" s="5">
         <v>1</v>
       </c>
-      <c r="Q46" s="14">
-        <v>1</v>
-      </c>
-      <c r="R46" s="16">
-        <v>1</v>
-      </c>
-      <c r="S46" s="16">
+      <c r="Q46" s="16">
+        <v>1</v>
+      </c>
+      <c r="R46" s="18">
+        <v>1</v>
+      </c>
+      <c r="S46" s="18">
         <v>1</v>
       </c>
     </row>
@@ -3237,13 +3231,13 @@
       <c r="P47" s="5">
         <v>1</v>
       </c>
-      <c r="Q47" s="14">
-        <v>1</v>
-      </c>
-      <c r="R47" s="16">
-        <v>1</v>
-      </c>
-      <c r="S47" s="16">
+      <c r="Q47" s="16">
+        <v>1</v>
+      </c>
+      <c r="R47" s="18">
+        <v>1</v>
+      </c>
+      <c r="S47" s="18">
         <v>1</v>
       </c>
     </row>
@@ -3296,13 +3290,13 @@
       <c r="P48" s="5">
         <v>1</v>
       </c>
-      <c r="Q48" s="14">
-        <v>1</v>
-      </c>
-      <c r="R48" s="16">
-        <v>1</v>
-      </c>
-      <c r="S48" s="16">
+      <c r="Q48" s="16">
+        <v>1</v>
+      </c>
+      <c r="R48" s="18">
+        <v>1</v>
+      </c>
+      <c r="S48" s="18">
         <v>1</v>
       </c>
     </row>
@@ -3355,13 +3349,13 @@
       <c r="P49" s="5">
         <v>1</v>
       </c>
-      <c r="Q49" s="14">
-        <v>1</v>
-      </c>
-      <c r="R49" s="16">
-        <v>1</v>
-      </c>
-      <c r="S49" s="16">
+      <c r="Q49" s="16">
+        <v>1</v>
+      </c>
+      <c r="R49" s="18">
+        <v>1</v>
+      </c>
+      <c r="S49" s="18">
         <v>1</v>
       </c>
     </row>
@@ -3414,13 +3408,13 @@
       <c r="P50" s="5">
         <v>1</v>
       </c>
-      <c r="Q50" s="14">
-        <v>1</v>
-      </c>
-      <c r="R50" s="16">
-        <v>1</v>
-      </c>
-      <c r="S50" s="16">
+      <c r="Q50" s="16">
+        <v>1</v>
+      </c>
+      <c r="R50" s="18">
+        <v>1</v>
+      </c>
+      <c r="S50" s="18">
         <v>1</v>
       </c>
     </row>
@@ -3473,13 +3467,13 @@
       <c r="P51" s="5">
         <v>1</v>
       </c>
-      <c r="Q51" s="14">
-        <v>1</v>
-      </c>
-      <c r="R51" s="16">
-        <v>1</v>
-      </c>
-      <c r="S51" s="16">
+      <c r="Q51" s="16">
+        <v>1</v>
+      </c>
+      <c r="R51" s="18">
+        <v>1</v>
+      </c>
+      <c r="S51" s="18">
         <v>1</v>
       </c>
     </row>
@@ -3532,13 +3526,13 @@
       <c r="P52" s="5">
         <v>1</v>
       </c>
-      <c r="Q52" s="14">
-        <v>1</v>
-      </c>
-      <c r="R52" s="16">
-        <v>1</v>
-      </c>
-      <c r="S52" s="16">
+      <c r="Q52" s="16">
+        <v>1</v>
+      </c>
+      <c r="R52" s="18">
+        <v>1</v>
+      </c>
+      <c r="S52" s="18">
         <v>1</v>
       </c>
     </row>
@@ -3591,13 +3585,13 @@
       <c r="P53" s="5">
         <v>1</v>
       </c>
-      <c r="Q53" s="14">
-        <v>1</v>
-      </c>
-      <c r="R53" s="16">
-        <v>1</v>
-      </c>
-      <c r="S53" s="16">
+      <c r="Q53" s="16">
+        <v>1</v>
+      </c>
+      <c r="R53" s="18">
+        <v>1</v>
+      </c>
+      <c r="S53" s="18">
         <v>1</v>
       </c>
     </row>
@@ -3650,13 +3644,13 @@
       <c r="P54" s="5">
         <v>1</v>
       </c>
-      <c r="Q54" s="14">
-        <v>1</v>
-      </c>
-      <c r="R54" s="16">
-        <v>1</v>
-      </c>
-      <c r="S54" s="16">
+      <c r="Q54" s="16">
+        <v>1</v>
+      </c>
+      <c r="R54" s="18">
+        <v>1</v>
+      </c>
+      <c r="S54" s="18">
         <v>1</v>
       </c>
     </row>
